--- a/Results/WebTours Профиль нагрузки_v1.1.xlsx
+++ b/Results/WebTours Профиль нагрузки_v1.1.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr hidePivotFieldList="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fikser\Desktop\HomeWork_IBS\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" activeTab="1"/>
+    <workbookView xWindow="1836" yWindow="2748" windowWidth="23040" windowHeight="9216" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Статистика" sheetId="4" r:id="rId1"/>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId2"/>
-    <sheet name="Шаблоны соотвествие профилю" sheetId="2" r:id="rId3"/>
+    <sheet name="Соответствие профилю х2" sheetId="6" r:id="rId3"/>
+    <sheet name="Соответствие профилю" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="42" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,26 +31,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="91">
   <si>
     <t>Вход в систему</t>
   </si>
   <si>
-    <t>Заполнение полей для поиска билета</t>
-  </si>
-  <si>
-    <t>Выбор рейса из найденных</t>
-  </si>
-  <si>
     <t>Оплата билета</t>
   </si>
   <si>
     <t>Просмотр квитанций</t>
   </si>
   <si>
-    <t>Отмена бронирования билета</t>
-  </si>
-  <si>
     <t>Выход из системы</t>
   </si>
   <si>
@@ -70,9 +57,6 @@
     <t xml:space="preserve">Отмена бронирования </t>
   </si>
   <si>
-    <t>Наименование операции</t>
-  </si>
-  <si>
     <t>Наименование транзакции</t>
   </si>
   <si>
@@ -85,33 +69,6 @@
     <t>% отклонения</t>
   </si>
   <si>
-    <t>payment_details</t>
-  </si>
-  <si>
-    <t>Просмотр квитанции</t>
-  </si>
-  <si>
-    <t>Cancel_reservation</t>
-  </si>
-  <si>
-    <t>Check_ticket</t>
-  </si>
-  <si>
-    <t>fing_flight</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>logout</t>
-  </si>
-  <si>
-    <t>select_ticket</t>
-  </si>
-  <si>
-    <t>Transaction Name</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -121,24 +78,6 @@
     <t>Stop</t>
   </si>
   <si>
-    <t>Поиск максимума 3 ступень</t>
-  </si>
-  <si>
-    <t>Подтверждение максимума</t>
-  </si>
-  <si>
-    <t>Профиль для 5 пользаков</t>
-  </si>
-  <si>
-    <t>1 315,</t>
-  </si>
-  <si>
-    <t>1 970,</t>
-  </si>
-  <si>
-    <t>1 675,</t>
-  </si>
-  <si>
     <t>Script name</t>
   </si>
   <si>
@@ -278,16 +217,105 @@
   </si>
   <si>
     <t>Submit_regisration</t>
+  </si>
+  <si>
+    <t>№ ступени</t>
+  </si>
+  <si>
+    <t>% ошибок</t>
+  </si>
+  <si>
+    <t>Submit_registration</t>
+  </si>
+  <si>
+    <t>Тест поиска максимума, ступень 2, 00:25:01-00:45:01</t>
+  </si>
+  <si>
+    <t>Тест поиска максимума, ступень 3, 00:48:31-01:08:31</t>
+  </si>
+  <si>
+    <t>Тест поиска максимума, ступень 4, 01:12:02-01:32:02</t>
+  </si>
+  <si>
+    <t>Тест поиска максимума</t>
+  </si>
+  <si>
+    <t>Тест подтверждения максимума</t>
+  </si>
+  <si>
+    <t>1 ступень (100%)</t>
+  </si>
+  <si>
+    <t>2 ступень (200%)</t>
+  </si>
+  <si>
+    <t>3 ступень (300%)</t>
+  </si>
+  <si>
+    <t>4 ступень (400%)</t>
+  </si>
+  <si>
+    <t>5 ступень (500%)</t>
+  </si>
+  <si>
+    <t>SLA</t>
+  </si>
+  <si>
+    <t>90 прст</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Тест поиска максимума, ступень 1, 00:1:30-00:21:30</t>
+  </si>
+  <si>
+    <t>Fill_sign_up_page</t>
+  </si>
+  <si>
+    <t>S3_UserRegistration</t>
+  </si>
+  <si>
+    <t>Тест поиска максимума, ступень 5, 01:35:32-01:55:32</t>
+  </si>
+  <si>
+    <t>S1_GoToFlights</t>
+  </si>
+  <si>
+    <t>1 ступень (200%)</t>
+  </si>
+  <si>
+    <t>Тест подтверждения максимума, ступень 2 400 %, 00:48:31-01:08:31</t>
+  </si>
+  <si>
+    <t>2 ступень (400%)</t>
+  </si>
+  <si>
+    <t>90% от 18</t>
+  </si>
+  <si>
+    <t>S2_FligtRegistration</t>
+  </si>
+  <si>
+    <t>Пэйсинг для теста поиска максимума</t>
+  </si>
+  <si>
+    <t>3 ступень (600%)</t>
+  </si>
+  <si>
+    <t>400% (пэйсинг уменьшенный х2) 2 ступер</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,29 +393,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="18"/>
@@ -506,6 +511,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="41">
     <fill>
@@ -527,12 +540,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -695,12 +702,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -735,8 +736,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -755,19 +768,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -953,118 +953,283 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="38" borderId="3" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="36" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1073,56 +1238,152 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="3" xfId="22" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="3" xfId="30" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="3" xfId="18" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="3" xfId="38" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="3" xfId="26" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="2" xfId="22" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" xfId="30" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="2" xfId="18" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="2" xfId="38" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="2" xfId="26" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="45"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="45" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="46" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="27" xfId="47" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="47" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="46" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="25" xfId="46" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="25" xfId="47" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="18" xfId="46" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="46" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="34" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="45">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+  <cellStyles count="48">
+    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1143,6 +1404,9 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="4"/>
     <cellStyle name="Обычный 3" xfId="42"/>
+    <cellStyle name="Обычный 4" xfId="45"/>
+    <cellStyle name="Обычный 6" xfId="47"/>
+    <cellStyle name="Обычный 8" xfId="46"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание 2" xfId="43"/>
@@ -1165,7 +1429,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="fikser" refreshedDate="44350.805044907407" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="25">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="fikser" refreshedDate="44361.445220833331" createdVersion="6" refreshedVersion="3" minRefreshableVersion="3" recordCount="25">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H26" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -1473,7 +1737,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -1604,7 +1868,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1639,7 +1903,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1816,127 +2080,127 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="57.85546875" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="57.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:2" ht="36">
+      <c r="A1" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="42">
+    </row>
+    <row r="2" spans="1:2" ht="18">
+      <c r="A2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="28">
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="42">
+    <row r="3" spans="1:2" ht="18">
+      <c r="A3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="28">
         <v>422</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="42">
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="28">
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="42">
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="28">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:2" ht="18">
+      <c r="A6" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="28">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18">
+      <c r="A7" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="28">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18">
+      <c r="A8" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="42">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="B9" s="28">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18">
+      <c r="A10" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="28">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18">
+      <c r="A11" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="28">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18">
+      <c r="A12" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="28">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18">
+      <c r="A13" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="42">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="42">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="42">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="42">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="42">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="42">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="42">
+      <c r="B13" s="28">
         <f>SUM(B2:B12)</f>
         <v>2550</v>
       </c>
@@ -1947,105 +2211,107 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.88671875" customWidth="1"/>
     <col min="19" max="19" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15" thickBot="1">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" t="s">
-        <v>54</v>
-      </c>
       <c r="Q1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="R1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="S1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>46</v>
-      </c>
-      <c r="U1" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="X1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>65</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="9">
         <f t="shared" ref="D2:D26" si="0">VLOOKUP(A2,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -2053,55 +2319,55 @@
         <f>VLOOKUP(A2,$M$1:$W$8,5,FALSE)</f>
         <v>245</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="8">
         <f>IFERROR(60/E2*C2,0)</f>
         <v>0.24489795918367346</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="7">
         <f>D2*F2*G2</f>
         <v>14.693877551020408</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="16">
+      <c r="I2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="2">
         <v>542.64252821811772</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="2"/>
       <c r="M2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="30">
+        <v>49</v>
+      </c>
+      <c r="N2" s="16">
         <v>1.3062</v>
       </c>
-      <c r="O2" s="30">
+      <c r="O2" s="16">
         <v>17.713699999999999</v>
       </c>
-      <c r="P2" s="45">
+      <c r="P2" s="31">
         <f>N2+O2</f>
         <v>19.0199</v>
       </c>
-      <c r="Q2" s="19">
+      <c r="Q2" s="5">
         <v>245</v>
       </c>
-      <c r="R2" s="19">
+      <c r="R2" s="5">
         <v>1</v>
       </c>
-      <c r="S2" s="20">
+      <c r="S2" s="6">
         <f>60/(Q2)</f>
         <v>0.24489795918367346</v>
       </c>
-      <c r="T2" s="26">
+      <c r="T2" s="12">
         <v>20</v>
       </c>
-      <c r="U2" s="27">
+      <c r="U2" s="13">
         <f>ROUND(R2*S2*T2,0)</f>
         <v>5</v>
       </c>
-      <c r="V2" s="28">
+      <c r="V2" s="14">
         <f>R2/W$2</f>
         <v>0.1</v>
       </c>
@@ -2110,17 +2376,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>66</v>
+    <row r="3" spans="1:24">
+      <c r="A3" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>47</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2128,70 +2394,70 @@
         <f t="shared" ref="E3:E26" si="1">VLOOKUP(A3,$M$1:$W$8,5,FALSE)</f>
         <v>245</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="8">
         <f t="shared" ref="F3:F26" si="2">IFERROR(60/E3*C3,0)</f>
         <v>0.24489795918367346</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="7">
         <f t="shared" ref="H3:H26" si="3">D3*F3*G3</f>
         <v>14.693877551020408</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="16">
+      <c r="I3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="2">
         <v>445.34523092082043</v>
       </c>
-      <c r="K3" s="16"/>
+      <c r="K3" s="2"/>
       <c r="M3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" s="30">
+        <v>51</v>
+      </c>
+      <c r="N3" s="16">
         <v>1.6053999999999999</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="16">
         <v>15.907</v>
       </c>
-      <c r="P3" s="45">
-        <f t="shared" ref="P3:P6" si="4">N3+O3</f>
+      <c r="P3" s="31">
+        <f>N3+O3</f>
         <v>17.5124</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="5">
         <v>65</v>
       </c>
-      <c r="R3" s="19">
+      <c r="R3" s="5">
         <v>3</v>
       </c>
-      <c r="S3" s="20">
-        <f t="shared" ref="S3:S6" si="5">60/(Q3)</f>
+      <c r="S3" s="6">
+        <f t="shared" ref="S3:S6" si="4">60/(Q3)</f>
         <v>0.92307692307692313</v>
       </c>
-      <c r="T3" s="26">
+      <c r="T3" s="12">
         <v>20</v>
       </c>
-      <c r="U3" s="27">
-        <f t="shared" ref="U3:U6" si="6">ROUND(R3*S3*T3,0)</f>
+      <c r="U3" s="13">
+        <f t="shared" ref="U3:U6" si="5">ROUND(R3*S3*T3,0)</f>
         <v>55</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="14">
         <f>R3/W$2</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>77</v>
+    <row r="4" spans="1:24">
+      <c r="A4" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>58</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2199,70 +2465,70 @@
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="8">
         <f t="shared" si="2"/>
         <v>0.24489795918367346</v>
       </c>
       <c r="G4">
         <v>60</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="7">
         <f t="shared" si="3"/>
         <v>14.693877551020408</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="16">
+      <c r="I4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="2">
         <v>327.84003341562288</v>
       </c>
-      <c r="K4" s="16"/>
+      <c r="K4" s="2"/>
       <c r="M4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" s="30">
+        <v>54</v>
+      </c>
+      <c r="N4" s="16">
         <v>1.0423</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="16">
         <v>13.9712</v>
       </c>
-      <c r="P4" s="45">
+      <c r="P4" s="31">
+        <f t="shared" ref="P4:P6" si="6">N4+O4</f>
+        <v>15.013500000000001</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>74</v>
+      </c>
+      <c r="R4" s="5">
+        <v>2</v>
+      </c>
+      <c r="S4" s="6">
         <f t="shared" si="4"/>
-        <v>15.013500000000001</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>74</v>
-      </c>
-      <c r="R4" s="19">
-        <v>2</v>
-      </c>
-      <c r="S4" s="20">
+        <v>0.81081081081081086</v>
+      </c>
+      <c r="T4" s="12">
+        <v>20</v>
+      </c>
+      <c r="U4" s="13">
         <f t="shared" si="5"/>
-        <v>0.81081081081081086</v>
-      </c>
-      <c r="T4" s="26">
-        <v>20</v>
-      </c>
-      <c r="U4" s="27">
-        <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="V4" s="28">
+      <c r="V4" s="14">
         <f t="shared" ref="V4:V6" si="7">R4/W$2</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>67</v>
+    <row r="5" spans="1:24">
+      <c r="A5" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>48</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="10">
         <f t="shared" ref="D5" si="8">VLOOKUP(A5,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -2270,70 +2536,70 @@
         <f t="shared" ref="E5" si="9">VLOOKUP(A5,$M$1:$W$8,5,FALSE)</f>
         <v>245</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="8">
         <f t="shared" si="2"/>
         <v>0.24489795918367346</v>
       </c>
       <c r="G5">
         <v>60</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="7">
         <f t="shared" ref="H5" si="10">D5*F5*G5</f>
         <v>14.693877551020408</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="16">
+      <c r="I5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="2">
         <v>294.58627858627858</v>
       </c>
-      <c r="K5" s="16"/>
+      <c r="K5" s="2"/>
       <c r="M5" t="s">
-        <v>76</v>
-      </c>
-      <c r="N5" s="30">
+        <v>57</v>
+      </c>
+      <c r="N5" s="16">
         <v>1.2647999999999999</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="16">
         <v>18.769400000000001</v>
       </c>
-      <c r="P5" s="45">
+      <c r="P5" s="31">
+        <f t="shared" si="6"/>
+        <v>20.034200000000002</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>103</v>
+      </c>
+      <c r="R5" s="5">
+        <v>2</v>
+      </c>
+      <c r="S5" s="6">
         <f t="shared" si="4"/>
-        <v>20.034200000000002</v>
-      </c>
-      <c r="Q5" s="19">
-        <v>103</v>
-      </c>
-      <c r="R5" s="19">
-        <v>2</v>
-      </c>
-      <c r="S5" s="20">
+        <v>0.58252427184466016</v>
+      </c>
+      <c r="T5" s="12">
+        <v>20</v>
+      </c>
+      <c r="U5" s="13">
         <f t="shared" si="5"/>
-        <v>0.58252427184466016</v>
-      </c>
-      <c r="T5" s="26">
-        <v>20</v>
-      </c>
-      <c r="U5" s="27">
-        <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="V5" s="28">
+      <c r="V5" s="14">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>65</v>
+    <row r="6" spans="1:24" ht="15" thickBot="1">
+      <c r="A6" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2341,70 +2607,70 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="8">
         <f t="shared" si="2"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="G6">
         <v>60</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="7">
         <f t="shared" si="3"/>
         <v>166.15384615384616</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="16">
+      <c r="I6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="2">
         <v>263.45114345114348</v>
       </c>
-      <c r="K6" s="16"/>
+      <c r="K6" s="2"/>
       <c r="M6" t="s">
-        <v>79</v>
-      </c>
-      <c r="N6" s="30">
+        <v>60</v>
+      </c>
+      <c r="N6" s="16">
         <v>0.9647</v>
       </c>
-      <c r="O6" s="30">
-        <v>18.994399999999999</v>
-      </c>
-      <c r="P6" s="45">
+      <c r="O6" s="16">
+        <v>14.994400000000001</v>
+      </c>
+      <c r="P6" s="31">
+        <f t="shared" si="6"/>
+        <v>15.959100000000001</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>37</v>
+      </c>
+      <c r="R6" s="5">
+        <v>2</v>
+      </c>
+      <c r="S6" s="6">
         <f t="shared" si="4"/>
-        <v>19.959099999999999</v>
-      </c>
-      <c r="Q6" s="19">
-        <v>37</v>
-      </c>
-      <c r="R6" s="19">
-        <v>2</v>
-      </c>
-      <c r="S6" s="20">
+        <v>1.6216216216216217</v>
+      </c>
+      <c r="T6" s="12">
+        <v>20</v>
+      </c>
+      <c r="U6" s="13">
         <f t="shared" si="5"/>
-        <v>1.6216216216216217</v>
-      </c>
-      <c r="T6" s="26">
-        <v>20</v>
-      </c>
-      <c r="U6" s="27">
-        <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="V6" s="28">
+      <c r="V6" s="14">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>66</v>
+    <row r="7" spans="1:24">
+      <c r="A7" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>47</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2412,45 +2678,45 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="8">
         <f t="shared" si="2"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="G7">
         <v>60</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="7">
         <f t="shared" si="3"/>
         <v>166.15384615384616</v>
       </c>
-      <c r="I7" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="16">
+      <c r="I7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="2">
         <v>166.15384615384616</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="27">
+      <c r="K7" s="2"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="13">
         <f>SUM(U2:U6)</f>
         <v>180</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="14">
         <f>SUM(V2:V6)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>69</v>
+    <row r="8" spans="1:24">
+      <c r="A8" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>50</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2458,36 +2724,36 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="8">
         <f t="shared" si="2"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="G8">
         <v>60</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="7">
         <f t="shared" si="3"/>
         <v>166.15384615384616</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="16">
+      <c r="I8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="2">
         <v>97.297297297297305</v>
       </c>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>72</v>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>53</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2495,36 +2761,36 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="8">
         <f t="shared" si="2"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="G9">
         <v>60</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="7">
         <f t="shared" si="3"/>
         <v>166.15384615384616</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="16">
+      <c r="I9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="2">
         <v>97.297297297297305</v>
       </c>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>71</v>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" ht="15" thickBot="1">
+      <c r="A10" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>52</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2532,35 +2798,50 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="8">
         <f t="shared" si="2"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="G10">
         <v>60</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="7">
         <f t="shared" si="3"/>
         <v>166.15384615384616</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="16">
+      <c r="I10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="2">
         <v>279.19138476697424</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>65</v>
+      <c r="M10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="94">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="94">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2568,35 +2849,54 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="8">
         <f t="shared" si="2"/>
         <v>0.81081081081081086</v>
       </c>
       <c r="G11">
         <v>60</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="7">
         <f t="shared" si="3"/>
         <v>97.297297297297305</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="16">
+      <c r="I11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="2">
         <v>69.902912621359221</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>74</v>
+      <c r="M11" s="5">
+        <v>122</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <f>P11*0.9</f>
+        <v>1.8</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2604,35 +2904,54 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="8">
         <f t="shared" si="2"/>
         <v>0.81081081081081086</v>
       </c>
       <c r="G12">
         <v>60</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="7">
         <f t="shared" si="3"/>
         <v>97.297297297297305</v>
       </c>
-      <c r="I12" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="16">
+      <c r="I12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="2">
         <v>97.297297297297305</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>75</v>
+      <c r="M12" s="5">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ref="Q12:R15" si="11">P12*0.9</f>
+        <v>5.4</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15" thickBot="1">
+      <c r="A13" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2640,65 +2959,103 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="8">
         <f t="shared" si="2"/>
         <v>0.81081081081081086</v>
       </c>
       <c r="G13">
         <v>60</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="7">
         <f t="shared" si="3"/>
         <v>97.297297297297305</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2681.0052500260549</v>
+      </c>
+      <c r="M13" s="5">
         <v>38</v>
       </c>
-      <c r="J13" s="16">
-        <v>2681.0052500260549</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="44" t="s">
+      <c r="N13" t="s">
         <v>80</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="11"/>
+        <v>3.6</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15" thickBot="1">
+      <c r="A14" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="25">
-        <f t="shared" ref="D14" si="11">VLOOKUP(A14,$M$1:$W$8,6,FALSE)</f>
+      <c r="D14" s="11">
+        <f t="shared" ref="D14" si="12">VLOOKUP(A14,$M$1:$W$8,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14" si="12">VLOOKUP(A14,$M$1:$W$8,5,FALSE)</f>
+        <f t="shared" ref="E14" si="13">VLOOKUP(A14,$M$1:$W$8,5,FALSE)</f>
         <v>74</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="8">
         <f t="shared" si="2"/>
         <v>0.81081081081081086</v>
       </c>
       <c r="G14">
         <v>60</v>
       </c>
-      <c r="H14" s="21">
-        <f t="shared" ref="H14" si="13">D14*F14*G14</f>
+      <c r="H14" s="7">
+        <f t="shared" ref="H14" si="14">D14*F14*G14</f>
         <v>97.297297297297305</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>67</v>
+      <c r="M14" s="5">
+        <v>51</v>
+      </c>
+      <c r="N14" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="11"/>
+        <v>3.6</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>48</v>
       </c>
       <c r="C15">
         <v>0.5</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2706,29 +3063,48 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="8">
         <f t="shared" si="2"/>
         <v>0.40540540540540543</v>
       </c>
       <c r="G15">
         <v>60</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="7">
         <f t="shared" si="3"/>
         <v>48.648648648648653</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>65</v>
+      <c r="M15" s="5">
+        <v>18</v>
+      </c>
+      <c r="N15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="11"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2736,59 +3112,70 @@
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="8">
         <f t="shared" si="2"/>
         <v>0.58252427184466016</v>
       </c>
       <c r="G16">
         <v>60</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="7">
         <f t="shared" si="3"/>
         <v>69.902912621359221</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>66</v>
+      <c r="P16">
+        <f>SUM(O11,P15,O14,O13,O12)</f>
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <f>SUM(Q11:Q15)</f>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>47</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="24">
-        <f t="shared" ref="D17" si="14">VLOOKUP(A17,$M$1:$W$8,6,FALSE)</f>
+      <c r="D17" s="10">
+        <f t="shared" ref="D17" si="15">VLOOKUP(A17,$M$1:$W$8,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17" si="15">VLOOKUP(A17,$M$1:$W$8,5,FALSE)</f>
+        <f t="shared" ref="E17" si="16">VLOOKUP(A17,$M$1:$W$8,5,FALSE)</f>
         <v>103</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="8">
         <f t="shared" si="2"/>
         <v>0.58252427184466016</v>
       </c>
       <c r="G17">
         <v>60</v>
       </c>
-      <c r="H17" s="21">
-        <f t="shared" ref="H17" si="16">D17*F17*G17</f>
+      <c r="H17" s="7">
+        <f t="shared" ref="H17" si="17">D17*F17*G17</f>
         <v>69.902912621359221</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>77</v>
+      <c r="M17" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>58</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2796,29 +3183,32 @@
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="8">
         <f t="shared" si="2"/>
         <v>0.58252427184466016</v>
       </c>
       <c r="G18">
         <v>60</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="7">
         <f t="shared" si="3"/>
         <v>69.902912621359221</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>78</v>
+      <c r="M18" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1">
+      <c r="A19" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>59</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2826,29 +3216,32 @@
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="8">
         <f t="shared" si="2"/>
         <v>0.58252427184466016</v>
       </c>
       <c r="G19">
         <v>60</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="7">
         <f t="shared" si="3"/>
         <v>69.902912621359221</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>67</v>
+      <c r="M19" s="5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>48</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2856,29 +3249,32 @@
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="8">
         <f t="shared" si="2"/>
         <v>0.58252427184466016</v>
       </c>
       <c r="G20">
         <v>60</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="7">
         <f t="shared" si="3"/>
         <v>69.902912621359221</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>65</v>
+      <c r="M20" s="5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2886,29 +3282,32 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="8">
         <f t="shared" si="2"/>
         <v>1.6216216216216217</v>
       </c>
       <c r="G21">
         <v>60</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="7">
         <f t="shared" si="3"/>
         <v>194.59459459459461</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>66</v>
+      <c r="M21" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>47</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2916,29 +3315,29 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="8">
         <f t="shared" si="2"/>
         <v>1.6216216216216217</v>
       </c>
       <c r="G22">
         <v>60</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="7">
         <f t="shared" si="3"/>
         <v>194.59459459459461</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>69</v>
+    <row r="23" spans="1:13">
+      <c r="A23" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>50</v>
       </c>
       <c r="C23">
         <v>0.66</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2946,29 +3345,29 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="8">
         <f t="shared" si="2"/>
         <v>1.0702702702702704</v>
       </c>
       <c r="G23">
         <v>60</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="7">
         <f t="shared" si="3"/>
         <v>128.43243243243245</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>72</v>
+    <row r="24" spans="1:13">
+      <c r="A24" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>53</v>
       </c>
       <c r="C24">
         <v>0.5</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2976,59 +3375,59 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="8">
         <f t="shared" si="2"/>
         <v>0.81081081081081086</v>
       </c>
       <c r="G24">
         <v>60</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="7">
         <f t="shared" si="3"/>
         <v>97.297297297297305</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>77</v>
+    <row r="25" spans="1:13">
+      <c r="A25" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>58</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="24">
-        <f t="shared" ref="D25" si="17">VLOOKUP(A25,$M$1:$W$8,6,FALSE)</f>
+      <c r="D25" s="10">
+        <f t="shared" ref="D25" si="18">VLOOKUP(A25,$M$1:$W$8,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25" si="18">VLOOKUP(A25,$M$1:$W$8,5,FALSE)</f>
+        <f t="shared" ref="E25" si="19">VLOOKUP(A25,$M$1:$W$8,5,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="8">
         <f t="shared" si="2"/>
         <v>1.6216216216216217</v>
       </c>
       <c r="G25">
         <v>60</v>
       </c>
-      <c r="H25" s="21">
-        <f t="shared" ref="H25" si="19">D25*F25*G25</f>
+      <c r="H25" s="7">
+        <f t="shared" ref="H25" si="20">D25*F25*G25</f>
         <v>194.59459459459461</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>67</v>
+    <row r="26" spans="1:13" ht="15" thickBot="1">
+      <c r="A26" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>48</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3036,382 +3435,375 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="8">
         <f t="shared" si="2"/>
         <v>1.6216216216216217</v>
       </c>
       <c r="G26">
         <v>60</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="7">
         <f t="shared" si="3"/>
         <v>194.59459459459461</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="D27" s="47"/>
-      <c r="F27" s="22"/>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="D28" s="47"/>
-      <c r="F28" s="22"/>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="D29" s="47"/>
-      <c r="F29" s="22"/>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="D30" s="47"/>
-      <c r="F30" s="22"/>
-      <c r="H30" s="21"/>
-    </row>
-    <row r="33" spans="1:8" ht="131.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
+    <row r="27" spans="1:13">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="F27" s="8"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="F28" s="8"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="D29" s="33"/>
+      <c r="F29" s="8"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="32" spans="1:13" ht="72">
+      <c r="A32" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="C32" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18">
+      <c r="A33" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="28">
+        <v>520</v>
+      </c>
+      <c r="C33" s="23">
+        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A33)</f>
+        <v>542.64252821811772</v>
+      </c>
+      <c r="D33" s="24">
+        <f>1-B33/C33</f>
+        <v>4.1726416638351749E-2</v>
+      </c>
+      <c r="F33" s="95">
+        <f>C33/3</f>
+        <v>180.88084273937258</v>
+      </c>
+      <c r="G33" s="15">
+        <v>181</v>
+      </c>
+      <c r="H33" s="18">
+        <f t="shared" ref="H33:H39" si="21">1-F33/G33</f>
+        <v>6.5832740678128943E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="18">
+      <c r="A34" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="28">
+        <v>422</v>
+      </c>
+      <c r="C34" s="19">
+        <f t="shared" ref="C34:C43" si="22">GETPIVOTDATA("Итого",$I$1,"transaction rq",A34)</f>
+        <v>445.34523092082043</v>
+      </c>
+      <c r="D34" s="17">
+        <f t="shared" ref="D34:D40" si="23">1-B34/C34</f>
+        <v>5.2420525246336558E-2</v>
+      </c>
+      <c r="F34" s="15">
+        <f>C34/3</f>
+        <v>148.44841030694013</v>
+      </c>
+      <c r="G34" s="15">
+        <v>149</v>
+      </c>
+      <c r="H34" s="18">
+        <f t="shared" si="21"/>
+        <v>3.7019442487239429E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18">
+      <c r="A35" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="28">
+        <v>282</v>
+      </c>
+      <c r="C35" s="19">
+        <f t="shared" si="22"/>
+        <v>294.58627858627858</v>
+      </c>
+      <c r="D35" s="17">
+        <f t="shared" si="23"/>
+        <v>4.2725271002710064E-2</v>
+      </c>
+      <c r="F35" s="15">
+        <f>C35/3</f>
+        <v>98.195426195426194</v>
+      </c>
+      <c r="G35" s="15">
+        <v>95</v>
+      </c>
+      <c r="H35" s="18">
+        <f t="shared" si="21"/>
+        <v>-3.3636065215012501E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="18">
+      <c r="A36" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="28">
+        <v>270</v>
+      </c>
+      <c r="C36" s="19">
+        <f t="shared" si="22"/>
+        <v>263.45114345114348</v>
+      </c>
+      <c r="D36" s="17">
+        <f t="shared" si="23"/>
+        <v>-2.4857954545454364E-2</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" ref="F36:F43" si="24">C36/3</f>
+        <v>87.817047817047822</v>
+      </c>
+      <c r="G36" s="15">
+        <v>89</v>
+      </c>
+      <c r="H36" s="18">
+        <f t="shared" si="21"/>
+        <v>1.3291597561260415E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="18">
+      <c r="A37" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="28">
+        <v>175</v>
+      </c>
+      <c r="C37" s="19">
+        <f t="shared" si="22"/>
+        <v>166.15384615384616</v>
+      </c>
+      <c r="D37" s="17">
+        <f t="shared" si="23"/>
+        <v>-5.32407407407407E-2</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="24"/>
+        <v>55.384615384615387</v>
+      </c>
+      <c r="G37" s="15">
+        <v>55</v>
+      </c>
+      <c r="H37" s="18">
+        <f t="shared" si="21"/>
+        <v>-6.9930069930070893E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18">
+      <c r="A38" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="B38" s="28">
+        <v>280</v>
+      </c>
+      <c r="C38" s="19">
+        <f t="shared" si="22"/>
+        <v>279.19138476697424</v>
+      </c>
+      <c r="D38" s="17">
+        <f t="shared" si="23"/>
+        <v>-2.8962757346566725E-3</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" si="24"/>
+        <v>93.063794922324746</v>
+      </c>
+      <c r="G38" s="15">
+        <v>93</v>
+      </c>
+      <c r="H38" s="18">
+        <f t="shared" si="21"/>
+        <v>-6.8596690671762772E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18">
+      <c r="A39" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="28">
+        <v>73</v>
+      </c>
+      <c r="C39" s="19">
+        <f t="shared" si="22"/>
+        <v>69.902912621359221</v>
+      </c>
+      <c r="D39" s="17">
+        <f t="shared" si="23"/>
+        <v>-4.4305555555555598E-2</v>
+      </c>
+      <c r="F39" s="15">
+        <f t="shared" si="24"/>
+        <v>23.300970873786408</v>
+      </c>
+      <c r="G39" s="15">
+        <v>23</v>
+      </c>
+      <c r="H39" s="18">
+        <f t="shared" si="21"/>
+        <v>-1.3085690164626351E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18">
+      <c r="A40" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="28">
+        <v>326</v>
+      </c>
+      <c r="C40" s="19">
+        <f t="shared" si="22"/>
+        <v>327.84003341562288</v>
+      </c>
+      <c r="D40" s="17">
+        <f t="shared" si="23"/>
+        <v>5.6125952540095891E-3</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="15">
+        <f t="shared" si="24"/>
+        <v>109.28001113854096</v>
+      </c>
+      <c r="G40" s="15">
+        <v>108</v>
+      </c>
+      <c r="H40" s="18">
+        <f t="shared" ref="H40:H43" si="25">1-F40/G40</f>
+        <v>-1.1851954986490387E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="36">
+      <c r="A41" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="28">
+        <v>97</v>
+      </c>
+      <c r="C41" s="19">
+        <f t="shared" si="22"/>
+        <v>97.297297297297305</v>
+      </c>
+      <c r="D41" s="17">
+        <f t="shared" ref="D41:D43" si="26">1-B41/C41</f>
+        <v>3.0555555555555891E-3</v>
+      </c>
+      <c r="F41" s="15">
+        <f t="shared" si="24"/>
+        <v>32.432432432432435</v>
+      </c>
+      <c r="G41" s="15">
+        <v>32</v>
+      </c>
+      <c r="H41" s="18">
+        <f t="shared" si="25"/>
+        <v>-1.3513513513513598E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18">
+      <c r="A42" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="42">
-        <v>520</v>
-      </c>
-      <c r="C34" s="37">
-        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A34)</f>
-        <v>542.64252821811772</v>
-      </c>
-      <c r="D34" s="38">
-        <f>1-B34/C34</f>
-        <v>4.1726416638351749E-2</v>
-      </c>
-      <c r="F34" s="29">
-        <f>C34/3</f>
-        <v>180.88084273937258</v>
-      </c>
-      <c r="G34" s="29">
-        <v>181</v>
-      </c>
-      <c r="H34" s="32">
-        <f t="shared" ref="H34:H40" si="20">1-F34/G34</f>
-        <v>6.5832740678128943E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="42">
-        <v>422</v>
-      </c>
-      <c r="C35" s="33">
-        <f t="shared" ref="C35:C44" si="21">GETPIVOTDATA("Итого",$I$1,"transaction rq",A35)</f>
-        <v>445.34523092082043</v>
-      </c>
-      <c r="D35" s="31">
-        <f t="shared" ref="D35:D41" si="22">1-B35/C35</f>
-        <v>5.2420525246336558E-2</v>
-      </c>
-      <c r="F35" s="29">
-        <f>C35/3</f>
-        <v>148.44841030694013</v>
-      </c>
-      <c r="G35" s="29">
-        <v>149</v>
-      </c>
-      <c r="H35" s="32">
-        <f t="shared" si="20"/>
-        <v>3.7019442487239429E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="42">
-        <v>282</v>
-      </c>
-      <c r="C36" s="33">
-        <f t="shared" si="21"/>
-        <v>294.58627858627858</v>
-      </c>
-      <c r="D36" s="31">
+      <c r="B42" s="28">
+        <v>97</v>
+      </c>
+      <c r="C42" s="19">
         <f t="shared" si="22"/>
-        <v>4.2725271002710064E-2</v>
-      </c>
-      <c r="F36" s="29">
-        <f>C36/3</f>
-        <v>98.195426195426194</v>
-      </c>
-      <c r="G36" s="29">
-        <v>95</v>
-      </c>
-      <c r="H36" s="32">
-        <f t="shared" si="20"/>
-        <v>-3.3636065215012501E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="42">
-        <v>270</v>
-      </c>
-      <c r="C37" s="33">
-        <f t="shared" si="21"/>
-        <v>263.45114345114348</v>
-      </c>
-      <c r="D37" s="31">
+        <v>97.297297297297305</v>
+      </c>
+      <c r="D42" s="17">
+        <f t="shared" si="26"/>
+        <v>3.0555555555555891E-3</v>
+      </c>
+      <c r="F42" s="15">
+        <f t="shared" si="24"/>
+        <v>32.432432432432435</v>
+      </c>
+      <c r="G42" s="15">
+        <v>32</v>
+      </c>
+      <c r="H42" s="18">
+        <f t="shared" si="25"/>
+        <v>-1.3513513513513598E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="18">
+      <c r="A43" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="28">
+        <v>97</v>
+      </c>
+      <c r="C43" s="19">
         <f t="shared" si="22"/>
-        <v>-2.4857954545454364E-2</v>
-      </c>
-      <c r="F37" s="29">
-        <f t="shared" ref="F37:F44" si="23">C37/3</f>
-        <v>87.817047817047822</v>
-      </c>
-      <c r="G37" s="29">
-        <v>89</v>
-      </c>
-      <c r="H37" s="32">
-        <f t="shared" si="20"/>
-        <v>1.3291597561260415E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="42">
-        <v>175</v>
-      </c>
-      <c r="C38" s="33">
-        <f t="shared" si="21"/>
-        <v>166.15384615384616</v>
-      </c>
-      <c r="D38" s="31">
-        <f t="shared" si="22"/>
-        <v>-5.32407407407407E-2</v>
-      </c>
-      <c r="F38" s="29">
-        <f t="shared" si="23"/>
-        <v>55.384615384615387</v>
-      </c>
-      <c r="G38" s="29">
-        <v>55</v>
-      </c>
-      <c r="H38" s="32">
-        <f t="shared" si="20"/>
-        <v>-6.9930069930070893E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="42">
-        <v>280</v>
-      </c>
-      <c r="C39" s="33">
-        <f t="shared" si="21"/>
-        <v>279.19138476697424</v>
-      </c>
-      <c r="D39" s="31">
-        <f t="shared" si="22"/>
-        <v>-2.8962757346566725E-3</v>
-      </c>
-      <c r="F39" s="29">
-        <f t="shared" si="23"/>
-        <v>93.063794922324746</v>
-      </c>
-      <c r="G39" s="29">
-        <v>93</v>
-      </c>
-      <c r="H39" s="32">
-        <f t="shared" si="20"/>
-        <v>-6.8596690671762772E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="42">
-        <v>73</v>
-      </c>
-      <c r="C40" s="33">
-        <f t="shared" si="21"/>
-        <v>69.902912621359221</v>
-      </c>
-      <c r="D40" s="31">
-        <f t="shared" si="22"/>
-        <v>-4.4305555555555598E-2</v>
-      </c>
-      <c r="F40" s="29">
-        <f t="shared" si="23"/>
-        <v>23.300970873786408</v>
-      </c>
-      <c r="G40" s="29">
-        <v>23</v>
-      </c>
-      <c r="H40" s="32">
-        <f t="shared" si="20"/>
-        <v>-1.3085690164626351E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="42">
-        <v>326</v>
-      </c>
-      <c r="C41" s="33">
-        <f t="shared" si="21"/>
-        <v>327.84003341562288</v>
-      </c>
-      <c r="D41" s="31">
-        <f t="shared" si="22"/>
-        <v>5.6125952540095891E-3</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="29">
-        <f t="shared" si="23"/>
-        <v>109.28001113854096</v>
-      </c>
-      <c r="G41" s="29">
-        <v>108</v>
-      </c>
-      <c r="H41" s="32">
-        <f t="shared" ref="H41:H44" si="24">1-F41/G41</f>
-        <v>-1.1851954986490387E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="42">
-        <v>97</v>
-      </c>
-      <c r="C42" s="33">
-        <f t="shared" si="21"/>
         <v>97.297297297297305</v>
       </c>
-      <c r="D42" s="31">
-        <f t="shared" ref="D42:D44" si="25">1-B42/C42</f>
+      <c r="D43" s="17">
+        <f t="shared" si="26"/>
         <v>3.0555555555555891E-3</v>
       </c>
-      <c r="F42" s="29">
-        <f t="shared" si="23"/>
+      <c r="F43" s="15">
+        <f t="shared" si="24"/>
         <v>32.432432432432435</v>
       </c>
-      <c r="G42" s="29">
+      <c r="G43" s="15">
         <v>32</v>
       </c>
-      <c r="H42" s="32">
-        <f t="shared" si="24"/>
+      <c r="H43" s="18">
+        <f t="shared" si="25"/>
         <v>-1.3513513513513598E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="42">
-        <v>97</v>
-      </c>
-      <c r="C43" s="33">
-        <f t="shared" si="21"/>
-        <v>97.297297297297305</v>
-      </c>
-      <c r="D43" s="31">
-        <f t="shared" si="25"/>
-        <v>3.0555555555555891E-3</v>
-      </c>
-      <c r="F43" s="29">
-        <f t="shared" si="23"/>
-        <v>32.432432432432435</v>
-      </c>
-      <c r="G43" s="29">
-        <v>32</v>
-      </c>
-      <c r="H43" s="32">
-        <f t="shared" si="24"/>
-        <v>-1.3513513513513598E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="42">
-        <v>97</v>
-      </c>
-      <c r="C44" s="33">
-        <f t="shared" si="21"/>
-        <v>97.297297297297305</v>
-      </c>
-      <c r="D44" s="31">
-        <f t="shared" si="25"/>
-        <v>3.0555555555555891E-3</v>
-      </c>
-      <c r="F44" s="29">
-        <f t="shared" si="23"/>
-        <v>32.432432432432435</v>
-      </c>
-      <c r="G44" s="29">
-        <v>32</v>
-      </c>
-      <c r="H44" s="32">
-        <f t="shared" si="24"/>
-        <v>-1.3513513513513598E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="42">
-        <f>SUM(B34:B44)</f>
+    <row r="44" spans="1:8" ht="18">
+      <c r="A44" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="28">
+        <f>SUM(B33:B43)</f>
         <v>2639</v>
       </c>
-      <c r="C45" s="34">
-        <f>SUM(C34:C44)</f>
+      <c r="C44" s="20">
+        <f>SUM(C33:C43)</f>
         <v>2681.0052500260554</v>
       </c>
-      <c r="D45" s="31">
-        <f>1-B45/C45</f>
+      <c r="D44" s="17">
+        <f>1-B44/C44</f>
         <v>1.5667723897835439E-2</v>
       </c>
     </row>
@@ -3421,618 +3813,4857 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C9:O44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:AA57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:I9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="4.42578125" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="11" max="11" width="1.42578125" customWidth="1"/>
-    <col min="12" max="12" width="40.28515625" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="27" max="27" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-    </row>
-    <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="E11" s="2" t="s">
+    <row r="2" spans="2:27" ht="15" thickBot="1">
+      <c r="B2" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="K2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" ht="15" thickBot="1">
+      <c r="B3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="45">
+        <v>365</v>
+      </c>
+      <c r="D3" s="42">
+        <f t="shared" ref="D3:D13" si="0">F3</f>
+        <v>366</v>
+      </c>
+      <c r="E3" s="43">
+        <f t="shared" ref="E3:E13" si="1">1-C3/D3</f>
+        <v>2.732240437158473E-3</v>
+      </c>
+      <c r="F3" s="44">
+        <v>366</v>
+      </c>
+      <c r="G3" s="44">
+        <v>0</v>
+      </c>
+      <c r="H3" s="44">
+        <v>0</v>
+      </c>
+      <c r="I3" s="43">
+        <f t="shared" ref="I3:I13" si="2">G3/(F3+G3+H3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="66">
+        <v>1</v>
+      </c>
+      <c r="N3" s="69"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA3" s="90"/>
+    </row>
+    <row r="4" spans="2:27" ht="15" thickBot="1">
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="45">
+        <v>302</v>
+      </c>
+      <c r="D4" s="42">
+        <f t="shared" si="0"/>
+        <v>304</v>
+      </c>
+      <c r="E4" s="43">
+        <f t="shared" si="1"/>
+        <v>6.5789473684210176E-3</v>
+      </c>
+      <c r="F4" s="44">
+        <v>304</v>
+      </c>
+      <c r="G4" s="44">
+        <v>0</v>
+      </c>
+      <c r="H4" s="44">
+        <v>0</v>
+      </c>
+      <c r="I4" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="66"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="S4" s="79"/>
+      <c r="T4" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4" s="79"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="76">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="77"/>
+    </row>
+    <row r="5" spans="2:27" ht="15" thickBot="1">
+      <c r="B5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="45">
+        <v>200</v>
+      </c>
+      <c r="D5" s="42">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="E5" s="43">
+        <f t="shared" si="1"/>
+        <v>-4.7120418848167533E-2</v>
+      </c>
+      <c r="F5" s="44">
+        <v>191</v>
+      </c>
+      <c r="G5" s="44">
+        <v>0</v>
+      </c>
+      <c r="H5" s="44">
+        <v>0</v>
+      </c>
+      <c r="I5" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="S5" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="V5" s="71"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27">
+      <c r="B6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="45">
+        <v>179</v>
+      </c>
+      <c r="D6" s="42">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="E6" s="43">
+        <f t="shared" si="1"/>
+        <v>-1.1299435028248483E-2</v>
+      </c>
+      <c r="F6" s="44">
+        <v>177</v>
+      </c>
+      <c r="G6" s="44">
+        <v>0</v>
+      </c>
+      <c r="H6" s="44">
+        <v>0</v>
+      </c>
+      <c r="I6" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P6" s="74">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="Q6" s="52" t="str">
+        <f t="shared" ref="Q6:Q21" si="3">IF(P6&lt;=$O6,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="R6" s="74">
+        <v>0.158</v>
+      </c>
+      <c r="S6" s="53" t="str">
+        <f t="shared" ref="S6:S21" si="4">IF(R6&lt;=$O6,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="T6" s="54">
+        <v>7.9989999999999997</v>
+      </c>
+      <c r="U6" s="91" t="str">
+        <f t="shared" ref="U6:U21" si="5">IF(T6&lt;=$O6,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="V6" s="75"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="47">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AA6" s="51" t="str">
+        <f t="shared" ref="AA6:AA21" si="6">IF(Z6&lt;=$O6,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="45">
+        <v>112</v>
+      </c>
+      <c r="D7" s="42">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="E7" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="44">
+        <v>112</v>
+      </c>
+      <c r="G7" s="44">
+        <v>0</v>
+      </c>
+      <c r="H7" s="44">
+        <v>0</v>
+      </c>
+      <c r="I7" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P7" s="74">
+        <v>0.127</v>
+      </c>
+      <c r="Q7" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>Pass</v>
+      </c>
+      <c r="R7" s="74">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="S7" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>Pass</v>
+      </c>
+      <c r="T7" s="56">
+        <v>7.4290000000000003</v>
+      </c>
+      <c r="U7" s="92" t="str">
+        <f t="shared" si="5"/>
+        <v>Fail</v>
+      </c>
+      <c r="V7" s="75"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="88"/>
+      <c r="Z7" s="47">
+        <v>0.186</v>
+      </c>
+      <c r="AA7" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27">
+      <c r="B8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="45">
+        <v>190</v>
+      </c>
+      <c r="D8" s="42">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="E8" s="43">
+        <f t="shared" si="1"/>
+        <v>5.2356020942407877E-3</v>
+      </c>
+      <c r="F8" s="44">
+        <v>191</v>
+      </c>
+      <c r="G8" s="44">
+        <v>0</v>
+      </c>
+      <c r="H8" s="44">
+        <v>0</v>
+      </c>
+      <c r="I8" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P8" s="74">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="Q8" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>Pass</v>
+      </c>
+      <c r="R8" s="74">
+        <v>0.152</v>
+      </c>
+      <c r="S8" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>Pass</v>
+      </c>
+      <c r="T8" s="56">
+        <v>0.157</v>
+      </c>
+      <c r="U8" s="55" t="str">
+        <f t="shared" si="5"/>
+        <v>Pass</v>
+      </c>
+      <c r="V8" s="75"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="47">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AA8" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27">
+      <c r="B9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="45">
+        <v>47</v>
+      </c>
+      <c r="D9" s="42">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E9" s="43">
+        <f t="shared" si="1"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F9" s="44">
+        <v>48</v>
+      </c>
+      <c r="G9" s="44">
+        <v>0</v>
+      </c>
+      <c r="H9" s="44">
+        <v>0</v>
+      </c>
+      <c r="I9" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P9" s="74">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="Q9" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>Pass</v>
+      </c>
+      <c r="R9" s="74">
+        <v>0.108</v>
+      </c>
+      <c r="S9" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>Pass</v>
+      </c>
+      <c r="T9" s="56">
+        <v>2.9380000000000002</v>
+      </c>
+      <c r="U9" s="92" t="str">
+        <f t="shared" si="5"/>
+        <v>Fail</v>
+      </c>
+      <c r="V9" s="75"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="47">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="AA9" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27">
+      <c r="B10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="45">
+        <v>221</v>
+      </c>
+      <c r="D10" s="42">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
+      <c r="E10" s="43">
+        <f t="shared" si="1"/>
+        <v>8.9686098654708779E-3</v>
+      </c>
+      <c r="F10" s="44">
+        <v>223</v>
+      </c>
+      <c r="G10" s="44">
+        <v>0</v>
+      </c>
+      <c r="H10" s="44">
+        <v>0</v>
+      </c>
+      <c r="I10" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P10" s="74">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="Q10" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>Pass</v>
+      </c>
+      <c r="R10" s="74">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="S10" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>Pass</v>
+      </c>
+      <c r="T10" s="56">
+        <v>3.8980000000000001</v>
+      </c>
+      <c r="U10" s="92" t="str">
+        <f t="shared" si="5"/>
+        <v>Fail</v>
+      </c>
+      <c r="V10" s="75"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="47">
+        <v>0.105</v>
+      </c>
+      <c r="AA10" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="45">
+        <v>63</v>
+      </c>
+      <c r="D11" s="42">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E11" s="43">
+        <f t="shared" si="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F11" s="44">
+        <v>64</v>
+      </c>
+      <c r="G11" s="44">
+        <v>0</v>
+      </c>
+      <c r="H11" s="44">
+        <v>0</v>
+      </c>
+      <c r="I11" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P11" s="74">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="Q11" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>Pass</v>
+      </c>
+      <c r="R11" s="74">
+        <v>0.621</v>
+      </c>
+      <c r="S11" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>Pass</v>
+      </c>
+      <c r="T11" s="56">
+        <v>6.9930000000000003</v>
+      </c>
+      <c r="U11" s="92" t="str">
+        <f t="shared" si="5"/>
+        <v>Fail</v>
+      </c>
+      <c r="V11" s="75"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="47">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="AA11" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="45">
+        <v>63</v>
+      </c>
+      <c r="D12" s="42">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E12" s="43">
+        <f t="shared" si="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F12" s="44">
+        <v>64</v>
+      </c>
+      <c r="G12" s="44">
+        <v>0</v>
+      </c>
+      <c r="H12" s="44">
+        <v>0</v>
+      </c>
+      <c r="I12" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P12" s="74">
+        <v>0.435</v>
+      </c>
+      <c r="Q12" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>Pass</v>
+      </c>
+      <c r="R12" s="74">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="S12" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>Pass</v>
+      </c>
+      <c r="T12" s="56">
+        <v>3.585</v>
+      </c>
+      <c r="U12" s="92" t="str">
+        <f t="shared" si="5"/>
+        <v>Fail</v>
+      </c>
+      <c r="V12" s="75"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="47">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="AA12" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27">
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="45">
+        <v>63</v>
+      </c>
+      <c r="D13" s="42">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="E13" s="43">
+        <f t="shared" si="1"/>
+        <v>-1.6129032258064502E-2</v>
+      </c>
+      <c r="F13" s="44">
+        <v>62</v>
+      </c>
+      <c r="G13" s="44">
+        <v>0</v>
+      </c>
+      <c r="H13" s="44">
+        <v>0</v>
+      </c>
+      <c r="I13" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P13" s="74">
+        <v>9.4E-2</v>
+      </c>
+      <c r="Q13" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>Pass</v>
+      </c>
+      <c r="R13" s="74">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="S13" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>Pass</v>
+      </c>
+      <c r="T13" s="56">
+        <v>2.7189999999999999</v>
+      </c>
+      <c r="U13" s="92" t="str">
+        <f t="shared" si="5"/>
+        <v>Fail</v>
+      </c>
+      <c r="V13" s="75"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="47">
+        <v>0.128</v>
+      </c>
+      <c r="AA13" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27">
+      <c r="K14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P14" s="74">
+        <v>0.122</v>
+      </c>
+      <c r="Q14" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>Pass</v>
+      </c>
+      <c r="R14" s="74">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="S14" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>Pass</v>
+      </c>
+      <c r="T14" s="56">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="U14" s="55" t="str">
+        <f t="shared" si="5"/>
+        <v>Pass</v>
+      </c>
+      <c r="V14" s="75"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="47">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AA14" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27">
+      <c r="B15" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="N15" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="O15" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P15" s="74">
+        <v>0.06</v>
+      </c>
+      <c r="Q15" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>Pass</v>
+      </c>
+      <c r="R15" s="74">
+        <v>9.4E-2</v>
+      </c>
+      <c r="S15" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>Pass</v>
+      </c>
+      <c r="T15" s="56">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="U15" s="55" t="str">
+        <f t="shared" si="5"/>
+        <v>Pass</v>
+      </c>
+      <c r="V15" s="75"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="47">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AA15" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27">
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F16" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G16" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H16" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="5">
-        <v>368</v>
-      </c>
-      <c r="H12" s="4">
-        <f>121*3</f>
-        <v>363</v>
-      </c>
-      <c r="I12" s="6">
-        <f>1-G12/H12</f>
-        <v>-1.377410468319562E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E13" s="3" t="s">
+      <c r="I16" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="50"/>
+      <c r="N16" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P16" s="74">
+        <v>0.111</v>
+      </c>
+      <c r="Q16" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>Pass</v>
+      </c>
+      <c r="R16" s="74">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="S16" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>Pass</v>
+      </c>
+      <c r="T16" s="56">
+        <v>6.7210000000000001</v>
+      </c>
+      <c r="U16" s="92" t="str">
+        <f t="shared" si="5"/>
+        <v>Fail</v>
+      </c>
+      <c r="V16" s="75"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="47">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="AA16" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27">
+      <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="45">
+        <v>731</v>
+      </c>
+      <c r="D17" s="42">
+        <f>F17</f>
+        <v>735</v>
+      </c>
+      <c r="E17" s="43">
+        <f>1-C17/D17</f>
+        <v>5.4421768707483276E-3</v>
+      </c>
+      <c r="F17" s="44">
+        <v>735</v>
+      </c>
+      <c r="G17" s="44">
+        <v>0</v>
+      </c>
+      <c r="H17" s="44">
+        <v>0</v>
+      </c>
+      <c r="I17" s="43">
+        <f>G17/(F17+G17+H17)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" s="85">
+        <f>'Автоматизированный расчет'!Q2</f>
+        <v>245</v>
+      </c>
+      <c r="P17" s="74">
+        <v>15.968999999999999</v>
+      </c>
+      <c r="Q17" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>Pass</v>
+      </c>
+      <c r="R17" s="74">
+        <v>16.068000000000001</v>
+      </c>
+      <c r="S17" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>Pass</v>
+      </c>
+      <c r="T17" s="56">
+        <v>38.243000000000002</v>
+      </c>
+      <c r="U17" s="55" t="str">
+        <f t="shared" si="5"/>
+        <v>Pass</v>
+      </c>
+      <c r="V17" s="75"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="47">
+        <v>16.116</v>
+      </c>
+      <c r="AA17" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27">
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="45">
+        <v>605</v>
+      </c>
+      <c r="D18" s="42">
+        <f t="shared" ref="D18:D27" si="7">F18</f>
+        <v>610</v>
+      </c>
+      <c r="E18" s="43">
+        <f t="shared" ref="E18:E27" si="8">1-C18/D18</f>
+        <v>8.1967213114754189E-3</v>
+      </c>
+      <c r="F18" s="44">
+        <v>610</v>
+      </c>
+      <c r="G18" s="44">
+        <v>0</v>
+      </c>
+      <c r="H18" s="44">
+        <v>0</v>
+      </c>
+      <c r="I18" s="43">
+        <f t="shared" ref="I18:I27" si="9">G18/(F18+G18+H18)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="O18" s="85">
+        <f>'Автоматизированный расчет'!Q3</f>
+        <v>65</v>
+      </c>
+      <c r="P18" s="83">
+        <v>20.699000000000002</v>
+      </c>
+      <c r="Q18" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>Pass</v>
+      </c>
+      <c r="R18" s="84">
+        <v>20.695</v>
+      </c>
+      <c r="S18" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>Pass</v>
+      </c>
+      <c r="T18" s="56">
+        <v>39.615000000000002</v>
+      </c>
+      <c r="U18" s="92" t="str">
+        <f t="shared" si="5"/>
+        <v>Pass</v>
+      </c>
+      <c r="V18" s="56"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="47">
+        <v>20.683</v>
+      </c>
+      <c r="AA18" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27">
+      <c r="B19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="45">
+        <v>401</v>
+      </c>
+      <c r="D19" s="42">
+        <f t="shared" si="7"/>
+        <v>386</v>
+      </c>
+      <c r="E19" s="43">
+        <f t="shared" si="8"/>
+        <v>-3.8860103626942921E-2</v>
+      </c>
+      <c r="F19" s="44">
+        <v>386</v>
+      </c>
+      <c r="G19" s="44">
+        <v>0</v>
+      </c>
+      <c r="H19" s="44">
+        <v>0</v>
+      </c>
+      <c r="I19" s="43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" s="85">
+        <f>'Автоматизированный расчет'!Q4</f>
+        <v>74</v>
+      </c>
+      <c r="P19" s="83">
+        <v>15.625</v>
+      </c>
+      <c r="Q19" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>Pass</v>
+      </c>
+      <c r="R19" s="84">
+        <v>15.664</v>
+      </c>
+      <c r="S19" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>Pass</v>
+      </c>
+      <c r="T19" s="56">
+        <v>28.518999999999998</v>
+      </c>
+      <c r="U19" s="55" t="str">
+        <f t="shared" si="5"/>
+        <v>Pass</v>
+      </c>
+      <c r="V19" s="56"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="47">
+        <v>15.622</v>
+      </c>
+      <c r="AA19" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27">
+      <c r="B20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="45">
+        <v>358</v>
+      </c>
+      <c r="D20" s="42">
+        <f t="shared" si="7"/>
+        <v>356</v>
+      </c>
+      <c r="E20" s="43">
+        <f t="shared" si="8"/>
+        <v>-5.6179775280897903E-3</v>
+      </c>
+      <c r="F20" s="44">
+        <v>356</v>
+      </c>
+      <c r="G20" s="44">
+        <v>0</v>
+      </c>
+      <c r="H20" s="44">
+        <v>0</v>
+      </c>
+      <c r="I20" s="43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" s="85">
+        <f>'Автоматизированный расчет'!Q5</f>
+        <v>103</v>
+      </c>
+      <c r="P20" s="83">
+        <v>21.405999999999999</v>
+      </c>
+      <c r="Q20" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v>Pass</v>
+      </c>
+      <c r="R20" s="84">
+        <v>21.65</v>
+      </c>
+      <c r="S20" s="53" t="str">
+        <f t="shared" si="4"/>
+        <v>Pass</v>
+      </c>
+      <c r="T20" s="56">
+        <v>46.872</v>
+      </c>
+      <c r="U20" s="55" t="str">
+        <f t="shared" si="5"/>
+        <v>Pass</v>
+      </c>
+      <c r="V20" s="56"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="47">
+        <v>21.789000000000001</v>
+      </c>
+      <c r="AA20" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" ht="15" thickBot="1">
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="45">
+        <f>'Автоматизированный расчет'!C37*'Соответствие профилю х2'!K15/3</f>
+        <v>110.76923076923077</v>
+      </c>
+      <c r="D21" s="42">
+        <f t="shared" si="7"/>
+        <v>224</v>
+      </c>
+      <c r="E21" s="43">
+        <f t="shared" si="8"/>
+        <v>0.50549450549450547</v>
+      </c>
+      <c r="F21" s="44">
+        <v>224</v>
+      </c>
+      <c r="G21" s="44">
+        <v>0</v>
+      </c>
+      <c r="H21" s="44">
+        <v>0</v>
+      </c>
+      <c r="I21" s="43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" s="86">
+        <f>'Автоматизированный расчет'!Q6</f>
+        <v>37</v>
+      </c>
+      <c r="P21" s="58">
+        <v>16.189</v>
+      </c>
+      <c r="Q21" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v>Pass</v>
+      </c>
+      <c r="R21" s="60">
+        <v>7.2930000000000001</v>
+      </c>
+      <c r="S21" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>Pass</v>
+      </c>
+      <c r="T21" s="62">
+        <v>17.890999999999998</v>
+      </c>
+      <c r="U21" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v>Pass</v>
+      </c>
+      <c r="V21" s="62"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="48">
+        <v>7.3540000000000001</v>
+      </c>
+      <c r="AA21" s="57" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27">
+      <c r="B22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="45">
+        <v>380</v>
+      </c>
+      <c r="D22" s="42">
+        <f t="shared" si="7"/>
+        <v>383</v>
+      </c>
+      <c r="E22" s="43">
+        <f t="shared" si="8"/>
+        <v>7.8328981723237989E-3</v>
+      </c>
+      <c r="F22" s="44">
+        <v>383</v>
+      </c>
+      <c r="G22" s="44">
+        <v>0</v>
+      </c>
+      <c r="H22" s="44">
+        <v>0</v>
+      </c>
+      <c r="I22" s="43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27">
+      <c r="B23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="45">
+        <v>94</v>
+      </c>
+      <c r="D23" s="42">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="E23" s="43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="44">
+        <v>94</v>
+      </c>
+      <c r="G23" s="44">
+        <v>0</v>
+      </c>
+      <c r="H23" s="44">
+        <v>0</v>
+      </c>
+      <c r="I23" s="43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27">
+      <c r="B24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="45">
+        <v>443</v>
+      </c>
+      <c r="D24" s="42">
+        <f t="shared" si="7"/>
+        <v>447</v>
+      </c>
+      <c r="E24" s="43">
+        <f t="shared" si="8"/>
+        <v>8.9485458612975632E-3</v>
+      </c>
+      <c r="F24" s="44">
+        <v>447</v>
+      </c>
+      <c r="G24" s="44">
+        <v>0</v>
+      </c>
+      <c r="H24" s="44">
+        <v>0</v>
+      </c>
+      <c r="I24" s="43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="45">
+        <v>126</v>
+      </c>
+      <c r="D25" s="42">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="E25" s="43">
+        <f t="shared" si="8"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F25" s="44">
+        <v>128</v>
+      </c>
+      <c r="G25" s="44">
+        <v>0</v>
+      </c>
+      <c r="H25" s="44">
+        <v>0</v>
+      </c>
+      <c r="I25" s="43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27">
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="45">
+        <v>126</v>
+      </c>
+      <c r="D26" s="42">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="E26" s="43">
+        <f t="shared" si="8"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F26" s="44">
+        <v>128</v>
+      </c>
+      <c r="G26" s="44">
+        <v>0</v>
+      </c>
+      <c r="H26" s="44">
+        <v>0</v>
+      </c>
+      <c r="I26" s="43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27">
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="45">
+        <v>126</v>
+      </c>
+      <c r="D27" s="42">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="E27" s="43">
+        <f t="shared" si="8"/>
+        <v>7.8740157480314821E-3</v>
+      </c>
+      <c r="F27" s="44">
+        <v>127</v>
+      </c>
+      <c r="G27" s="44">
+        <v>0</v>
+      </c>
+      <c r="H27" s="44">
+        <v>0</v>
+      </c>
+      <c r="I27" s="43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27">
+      <c r="K29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27">
+      <c r="B30" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="K30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27">
+      <c r="B31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27">
+      <c r="B32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="45">
+        <v>1097</v>
+      </c>
+      <c r="D32" s="42">
+        <f>F32</f>
+        <v>1052</v>
+      </c>
+      <c r="E32" s="43">
+        <f>1-C32/D32</f>
+        <v>-4.2775665399239493E-2</v>
+      </c>
+      <c r="F32" s="44">
+        <v>1052</v>
+      </c>
+      <c r="G32" s="44">
+        <v>0</v>
+      </c>
+      <c r="H32" s="44">
+        <v>0</v>
+      </c>
+      <c r="I32" s="43">
+        <f>G32/(F32+G32+H32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="45">
+        <v>908</v>
+      </c>
+      <c r="D33" s="42">
+        <f t="shared" ref="D33:D42" si="10">F33</f>
+        <v>856</v>
+      </c>
+      <c r="E33" s="93">
+        <f t="shared" ref="E33:E42" si="11">1-C33/D33</f>
+        <v>-6.0747663551401931E-2</v>
+      </c>
+      <c r="F33" s="44">
+        <v>856</v>
+      </c>
+      <c r="G33" s="44">
         <v>1</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="5">
-        <v>251</v>
-      </c>
-      <c r="H13" s="4">
-        <f>82*3</f>
-        <v>246</v>
-      </c>
-      <c r="I13" s="6">
-        <f t="shared" ref="I13:I18" si="0">1-G13/H13</f>
-        <v>-2.0325203252032464E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E14" s="3" t="s">
+      <c r="H33" s="44">
+        <v>0</v>
+      </c>
+      <c r="I33" s="43">
+        <f t="shared" ref="I33:I42" si="12">G33/(F33+G33+H33)</f>
+        <v>1.1668611435239206E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="45">
+        <v>601</v>
+      </c>
+      <c r="D34" s="42">
+        <f t="shared" si="10"/>
+        <v>530</v>
+      </c>
+      <c r="E34" s="93">
+        <f t="shared" si="11"/>
+        <v>-0.13396226415094348</v>
+      </c>
+      <c r="F34" s="44">
+        <v>530</v>
+      </c>
+      <c r="G34" s="44">
+        <v>0</v>
+      </c>
+      <c r="H34" s="44">
+        <v>0</v>
+      </c>
+      <c r="I34" s="43">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="45">
+        <v>537</v>
+      </c>
+      <c r="D35" s="42">
+        <f t="shared" si="10"/>
+        <v>489</v>
+      </c>
+      <c r="E35" s="93">
+        <f t="shared" si="11"/>
+        <v>-9.8159509202454087E-2</v>
+      </c>
+      <c r="F35" s="44">
+        <v>489</v>
+      </c>
+      <c r="G35" s="44">
+        <v>0</v>
+      </c>
+      <c r="H35" s="44">
+        <v>0</v>
+      </c>
+      <c r="I35" s="43">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="45">
+        <v>337</v>
+      </c>
+      <c r="D36" s="42">
+        <f t="shared" si="10"/>
+        <v>290</v>
+      </c>
+      <c r="E36" s="93">
+        <f t="shared" si="11"/>
+        <v>-0.16206896551724137</v>
+      </c>
+      <c r="F36" s="44">
+        <v>290</v>
+      </c>
+      <c r="G36" s="44">
+        <v>0</v>
+      </c>
+      <c r="H36" s="44">
+        <v>0</v>
+      </c>
+      <c r="I36" s="43">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="45">
+        <v>570</v>
+      </c>
+      <c r="D37" s="42">
+        <f t="shared" si="10"/>
+        <v>563</v>
+      </c>
+      <c r="E37" s="43">
+        <f t="shared" si="11"/>
+        <v>-1.243339253996445E-2</v>
+      </c>
+      <c r="F37" s="44">
+        <v>563</v>
+      </c>
+      <c r="G37" s="44">
+        <v>0</v>
+      </c>
+      <c r="H37" s="44">
+        <v>0</v>
+      </c>
+      <c r="I37" s="43">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="45">
+        <v>141</v>
+      </c>
+      <c r="D38" s="42">
+        <f t="shared" si="10"/>
+        <v>138</v>
+      </c>
+      <c r="E38" s="43">
+        <f t="shared" si="11"/>
+        <v>-2.1739130434782705E-2</v>
+      </c>
+      <c r="F38" s="44">
+        <v>138</v>
+      </c>
+      <c r="G38" s="44">
+        <v>0</v>
+      </c>
+      <c r="H38" s="44">
+        <v>0</v>
+      </c>
+      <c r="I38" s="43">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="45">
+        <v>665</v>
+      </c>
+      <c r="D39" s="42">
+        <f t="shared" si="10"/>
+        <v>655</v>
+      </c>
+      <c r="E39" s="43">
+        <f t="shared" si="11"/>
+        <v>-1.5267175572519109E-2</v>
+      </c>
+      <c r="F39" s="44">
+        <v>655</v>
+      </c>
+      <c r="G39" s="44">
+        <v>0</v>
+      </c>
+      <c r="H39" s="44">
+        <v>0</v>
+      </c>
+      <c r="I39" s="43">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="45">
+        <v>189</v>
+      </c>
+      <c r="D40" s="42">
+        <f t="shared" si="10"/>
+        <v>191</v>
+      </c>
+      <c r="E40" s="43">
+        <f t="shared" si="11"/>
+        <v>1.0471204188481686E-2</v>
+      </c>
+      <c r="F40" s="44">
+        <v>191</v>
+      </c>
+      <c r="G40" s="44">
+        <v>0</v>
+      </c>
+      <c r="H40" s="44">
+        <v>0</v>
+      </c>
+      <c r="I40" s="43">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="45">
+        <v>189</v>
+      </c>
+      <c r="D41" s="42">
+        <f t="shared" si="10"/>
+        <v>191</v>
+      </c>
+      <c r="E41" s="43">
+        <f t="shared" si="11"/>
+        <v>1.0471204188481686E-2</v>
+      </c>
+      <c r="F41" s="44">
+        <v>191</v>
+      </c>
+      <c r="G41" s="44">
+        <v>0</v>
+      </c>
+      <c r="H41" s="44">
+        <v>0</v>
+      </c>
+      <c r="I41" s="43">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="45">
+        <v>189</v>
+      </c>
+      <c r="D42" s="42">
+        <f t="shared" si="10"/>
+        <v>187</v>
+      </c>
+      <c r="E42" s="43">
+        <f t="shared" si="11"/>
+        <v>-1.0695187165775444E-2</v>
+      </c>
+      <c r="F42" s="44">
+        <v>187</v>
+      </c>
+      <c r="G42" s="44">
+        <v>0</v>
+      </c>
+      <c r="H42" s="44">
+        <v>0</v>
+      </c>
+      <c r="I42" s="43">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="K44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
+      <c r="K45">
         <v>2</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="5">
-        <v>251</v>
-      </c>
-      <c r="H14" s="4">
-        <f>82*3</f>
-        <v>246</v>
-      </c>
-      <c r="I14" s="6">
-        <f t="shared" si="0"/>
-        <v>-2.0325203252032464E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="5">
-        <v>175</v>
-      </c>
-      <c r="H15" s="4">
-        <f>56*3</f>
-        <v>168</v>
-      </c>
-      <c r="I15" s="7">
-        <f t="shared" si="0"/>
-        <v>-4.1666666666666741E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="5">
-        <v>159</v>
-      </c>
-      <c r="H16" s="5">
-        <f>56*3</f>
-        <v>168</v>
-      </c>
-      <c r="I16" s="6">
-        <f t="shared" si="0"/>
-        <v>5.3571428571428603E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="5">
-        <v>73</v>
-      </c>
-      <c r="H17" s="4">
-        <f>25*3</f>
-        <v>75</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" si="0"/>
-        <v>2.6666666666666616E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="5">
-        <v>326</v>
-      </c>
-      <c r="H18" s="4">
-        <f>104*3</f>
-        <v>312</v>
-      </c>
-      <c r="I18" s="6">
-        <f t="shared" si="0"/>
-        <v>-4.4871794871794934E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E25" s="9" t="s">
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F46" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G46" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H46" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E26" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="11">
-        <f>5*368</f>
-        <v>1840</v>
-      </c>
-      <c r="H26" s="10">
-        <f>721*3</f>
-        <v>2163</v>
-      </c>
-      <c r="I26" s="12">
-        <f>1-G26/H26</f>
-        <v>0.14932963476652794</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E27" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="11">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H27" s="10">
-        <f>3*464</f>
-        <v>1392</v>
-      </c>
-      <c r="I27" s="12">
-        <f t="shared" ref="I27:I32" si="1">1-G27/H27</f>
-        <v>9.8419540229885083E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E28" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="11">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H28" s="10">
-        <f>3*462</f>
-        <v>1386</v>
-      </c>
-      <c r="I28" s="12">
-        <f t="shared" si="1"/>
-        <v>9.4516594516594554E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="11">
-        <f>5*175</f>
-        <v>875</v>
-      </c>
-      <c r="H29" s="10">
-        <f>3*314</f>
-        <v>942</v>
-      </c>
-      <c r="I29" s="8">
-        <f t="shared" si="1"/>
-        <v>7.1125265392781301E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E30" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="11">
-        <f>5*159</f>
-        <v>795</v>
-      </c>
-      <c r="H30" s="10">
-        <f>3*330</f>
-        <v>990</v>
-      </c>
-      <c r="I30" s="12">
-        <f t="shared" si="1"/>
-        <v>0.19696969696969702</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="11">
-        <f>5*73</f>
-        <v>365</v>
-      </c>
-      <c r="H31" s="10">
-        <f>3*141</f>
-        <v>423</v>
-      </c>
-      <c r="I31" s="12">
-        <f t="shared" si="1"/>
-        <v>0.13711583924349879</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="11">
-        <f>5*326</f>
-        <v>1630</v>
-      </c>
-      <c r="H32" s="10">
-        <f>3*599</f>
-        <v>1797</v>
-      </c>
-      <c r="I32" s="12">
-        <f t="shared" si="1"/>
-        <v>9.2932665553700611E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-    </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M37" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N37" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="O37" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E38" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="11">
-        <f>5*368</f>
-        <v>1840</v>
-      </c>
-      <c r="H38" s="10">
-        <v>2109</v>
-      </c>
-      <c r="I38" s="12">
-        <f>1-G38/H38</f>
-        <v>0.12754860123281175</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M38" s="15">
-        <v>377</v>
-      </c>
-      <c r="N38" s="15">
-        <v>27</v>
-      </c>
-      <c r="O38" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E39" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="11">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H39" s="15">
-        <v>1315</v>
-      </c>
-      <c r="I39" s="12">
-        <f t="shared" ref="I39:I44" si="2">1-G39/H39</f>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M39" s="15">
-        <v>998</v>
-      </c>
-      <c r="N39" s="15">
-        <v>1</v>
-      </c>
-      <c r="O39" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="11">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H40" s="10">
-        <v>1315</v>
-      </c>
-      <c r="I40" s="12">
-        <f t="shared" si="2"/>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L40" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M40" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N40" s="15">
-        <v>0</v>
-      </c>
-      <c r="O40" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E41" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="11">
-        <f>5*175</f>
-        <v>875</v>
-      </c>
-      <c r="H41" s="15">
-        <v>924</v>
-      </c>
-      <c r="I41" s="8">
-        <f t="shared" si="2"/>
-        <v>5.3030303030302983E-2</v>
-      </c>
-      <c r="L41" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M41" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N41" s="15">
-        <v>139</v>
-      </c>
-      <c r="O41" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E42" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" s="11">
-        <f>5*159</f>
-        <v>795</v>
-      </c>
-      <c r="H42" s="15">
-        <v>998</v>
-      </c>
-      <c r="I42" s="12">
-        <f t="shared" si="2"/>
-        <v>0.20340681362725455</v>
-      </c>
-      <c r="L42" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M42" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="N42" s="15">
-        <v>1</v>
-      </c>
-      <c r="O42" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E43" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="11">
-        <f>5*73</f>
-        <v>365</v>
-      </c>
-      <c r="H43" s="15">
-        <v>404</v>
-      </c>
-      <c r="I43" s="12">
-        <f t="shared" si="2"/>
-        <v>9.6534653465346509E-2</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M43" s="15">
-        <v>924</v>
-      </c>
-      <c r="N43" s="15">
-        <v>0</v>
-      </c>
-      <c r="O43" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E44" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="11">
-        <f>5*326</f>
-        <v>1630</v>
-      </c>
-      <c r="H44" s="10">
-        <v>1675</v>
-      </c>
-      <c r="I44" s="12">
-        <f t="shared" si="2"/>
-        <v>2.68656716417911E-2</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M44" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N44" s="15">
-        <v>0</v>
-      </c>
-      <c r="O44" s="15">
+      <c r="I46" s="41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="42">
+        <v>2083</v>
+      </c>
+      <c r="D47" s="42">
+        <f>F47</f>
+        <v>2082</v>
+      </c>
+      <c r="E47" s="43">
+        <f>1-C47/D47</f>
+        <v>-4.8030739673388112E-4</v>
+      </c>
+      <c r="F47" s="44">
+        <v>2082</v>
+      </c>
+      <c r="G47" s="44">
+        <v>0</v>
+      </c>
+      <c r="H47" s="44">
+        <v>0</v>
+      </c>
+      <c r="I47" s="43">
+        <f>G47/(F47+G47+H47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="42">
+        <v>1704</v>
+      </c>
+      <c r="D48" s="42">
+        <f t="shared" ref="D48:D57" si="13">F48</f>
+        <v>1704</v>
+      </c>
+      <c r="E48" s="96">
+        <f t="shared" ref="E48:E57" si="14">1-C48/D48</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="44">
+        <v>1704</v>
+      </c>
+      <c r="G48" s="44">
+        <v>0</v>
+      </c>
+      <c r="H48" s="44">
+        <v>0</v>
+      </c>
+      <c r="I48" s="43">
+        <f t="shared" ref="I48:I57" si="15">G48/(F48+G48+H48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="42">
+        <v>1091</v>
+      </c>
+      <c r="D49" s="42">
+        <f t="shared" si="13"/>
+        <v>1042</v>
+      </c>
+      <c r="E49" s="96">
+        <f t="shared" si="14"/>
+        <v>-4.702495201535517E-2</v>
+      </c>
+      <c r="F49" s="44">
+        <v>1042</v>
+      </c>
+      <c r="G49" s="44">
+        <v>0</v>
+      </c>
+      <c r="H49" s="44">
+        <v>0</v>
+      </c>
+      <c r="I49" s="43">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="42">
+        <v>963</v>
+      </c>
+      <c r="D50" s="42">
+        <f t="shared" si="13"/>
+        <v>961</v>
+      </c>
+      <c r="E50" s="96">
+        <f t="shared" si="14"/>
+        <v>-2.0811654526535772E-3</v>
+      </c>
+      <c r="F50" s="44">
+        <v>961</v>
+      </c>
+      <c r="G50" s="44">
+        <v>0</v>
+      </c>
+      <c r="H50" s="44">
+        <v>0</v>
+      </c>
+      <c r="I50" s="43">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="42">
+        <v>563</v>
+      </c>
+      <c r="D51" s="42">
+        <f t="shared" si="13"/>
+        <v>562</v>
+      </c>
+      <c r="E51" s="96">
+        <f t="shared" si="14"/>
+        <v>-1.779359430605032E-3</v>
+      </c>
+      <c r="F51" s="44">
+        <v>562</v>
+      </c>
+      <c r="G51" s="44">
+        <v>0</v>
+      </c>
+      <c r="H51" s="44">
+        <v>0</v>
+      </c>
+      <c r="I51" s="43">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="42">
+        <v>1141</v>
+      </c>
+      <c r="D52" s="42">
+        <f t="shared" si="13"/>
+        <v>1141</v>
+      </c>
+      <c r="E52" s="43">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="44">
+        <v>1141</v>
+      </c>
+      <c r="G52" s="44">
+        <v>0</v>
+      </c>
+      <c r="H52" s="44">
+        <v>0</v>
+      </c>
+      <c r="I52" s="43">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="42">
+        <v>282</v>
+      </c>
+      <c r="D53" s="42">
+        <f t="shared" si="13"/>
+        <v>284</v>
+      </c>
+      <c r="E53" s="43">
+        <f t="shared" si="14"/>
+        <v>7.0422535211267512E-3</v>
+      </c>
+      <c r="F53" s="44">
+        <v>284</v>
+      </c>
+      <c r="G53" s="44">
+        <v>0</v>
+      </c>
+      <c r="H53" s="44">
+        <v>0</v>
+      </c>
+      <c r="I53" s="43">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="42">
+        <v>1331</v>
+      </c>
+      <c r="D54" s="42">
+        <f t="shared" si="13"/>
+        <v>1327</v>
+      </c>
+      <c r="E54" s="43">
+        <f t="shared" si="14"/>
+        <v>-3.0143180105501877E-3</v>
+      </c>
+      <c r="F54" s="44">
+        <v>1327</v>
+      </c>
+      <c r="G54" s="44">
+        <v>0</v>
+      </c>
+      <c r="H54" s="44">
+        <v>0</v>
+      </c>
+      <c r="I54" s="43">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="42">
+        <v>379</v>
+      </c>
+      <c r="D55" s="42">
+        <f t="shared" si="13"/>
+        <v>379</v>
+      </c>
+      <c r="E55" s="43">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="44">
+        <v>379</v>
+      </c>
+      <c r="G55" s="44">
+        <v>0</v>
+      </c>
+      <c r="H55" s="44">
+        <v>0</v>
+      </c>
+      <c r="I55" s="43">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="42">
+        <v>379</v>
+      </c>
+      <c r="D56" s="42">
+        <f t="shared" si="13"/>
+        <v>379</v>
+      </c>
+      <c r="E56" s="43">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="44">
+        <v>379</v>
+      </c>
+      <c r="G56" s="44">
+        <v>0</v>
+      </c>
+      <c r="H56" s="44">
+        <v>0</v>
+      </c>
+      <c r="I56" s="43">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="42">
+        <v>379</v>
+      </c>
+      <c r="D57" s="42">
+        <f t="shared" si="13"/>
+        <v>379</v>
+      </c>
+      <c r="E57" s="43">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="44">
+        <v>379</v>
+      </c>
+      <c r="G57" s="44">
+        <v>0</v>
+      </c>
+      <c r="H57" s="44">
+        <v>0</v>
+      </c>
+      <c r="I57" s="43">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E9:I9"/>
+  <mergeCells count="4">
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B30:I30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:AA72"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:27" ht="15" thickBot="1">
+      <c r="N1" s="33"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="46"/>
+    </row>
+    <row r="2" spans="2:27" ht="15" thickBot="1">
+      <c r="B2" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="K2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="69"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="79"/>
+      <c r="T2" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="79"/>
+      <c r="V2" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" s="79"/>
+      <c r="X2" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="77"/>
+    </row>
+    <row r="3" spans="2:27" ht="15" thickBot="1">
+      <c r="B3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="45">
+        <f>'Автоматизированный расчет'!F33</f>
+        <v>180.88084273937258</v>
+      </c>
+      <c r="D3" s="42">
+        <f t="shared" ref="D3" si="0">F3</f>
+        <v>180</v>
+      </c>
+      <c r="E3" s="43">
+        <f t="shared" ref="E3" si="1">1-C3/D3</f>
+        <v>-4.8935707742920886E-3</v>
+      </c>
+      <c r="F3" s="44">
+        <v>180</v>
+      </c>
+      <c r="G3" s="44">
+        <v>0</v>
+      </c>
+      <c r="H3" s="44">
+        <v>0</v>
+      </c>
+      <c r="I3" s="43">
+        <f t="shared" ref="I3" si="2">G3/(F3+G3+H3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="66">
+        <v>1</v>
+      </c>
+      <c r="N3" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="U3" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="V3" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="W3" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="68"/>
+    </row>
+    <row r="4" spans="2:27">
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="45">
+        <f>'Автоматизированный расчет'!F34</f>
+        <v>148.44841030694013</v>
+      </c>
+      <c r="D4" s="42">
+        <f t="shared" ref="D4:D13" si="3">F4</f>
+        <v>149</v>
+      </c>
+      <c r="E4" s="43">
+        <f t="shared" ref="E4:E13" si="4">1-C4/D4</f>
+        <v>3.7019442487239429E-3</v>
+      </c>
+      <c r="F4" s="44">
+        <v>149</v>
+      </c>
+      <c r="G4" s="44">
+        <v>0</v>
+      </c>
+      <c r="H4" s="44">
+        <v>0</v>
+      </c>
+      <c r="I4" s="43">
+        <f t="shared" ref="I4:I13" si="5">G4/(F4+G4+H4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P4" s="74">
+        <v>0.161</v>
+      </c>
+      <c r="Q4" s="52" t="str">
+        <f t="shared" ref="Q4:Q16" si="6">IF(P4&lt;=$O4,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="R4" s="74">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="S4" s="53" t="str">
+        <f t="shared" ref="S4:S16" si="7">IF(R4&lt;=$O4,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="T4" s="54">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="U4" s="52" t="str">
+        <f t="shared" ref="U4:U16" si="8">IF(T4&lt;=$O4,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="V4" s="75">
+        <v>0.159</v>
+      </c>
+      <c r="W4" s="53" t="str">
+        <f t="shared" ref="W4:W16" si="9">IF(V4&lt;=$O4,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="X4" s="54">
+        <v>1.403</v>
+      </c>
+      <c r="Y4" s="87" t="str">
+        <f t="shared" ref="Y4:Y16" si="10">IF(X4&lt;=$O4,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="51" t="str">
+        <f t="shared" ref="AA4:AA16" si="11">IF(Z4&lt;=$O4,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27">
+      <c r="B5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="45">
+        <f>'Автоматизированный расчет'!F35</f>
+        <v>98.195426195426194</v>
+      </c>
+      <c r="D5" s="42">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="E5" s="43">
+        <f t="shared" si="4"/>
+        <v>-2.2869022869022926E-2</v>
+      </c>
+      <c r="F5" s="44">
+        <v>96</v>
+      </c>
+      <c r="G5" s="44">
+        <v>0</v>
+      </c>
+      <c r="H5" s="44">
+        <v>0</v>
+      </c>
+      <c r="I5" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P5" s="74">
+        <v>0.191</v>
+      </c>
+      <c r="Q5" s="55" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+      <c r="R5" s="74">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="S5" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>Pass</v>
+      </c>
+      <c r="T5" s="56">
+        <v>0.125</v>
+      </c>
+      <c r="U5" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v>Pass</v>
+      </c>
+      <c r="V5" s="75">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="W5" s="53" t="str">
+        <f t="shared" si="9"/>
+        <v>Pass</v>
+      </c>
+      <c r="X5" s="56">
+        <v>1.669</v>
+      </c>
+      <c r="Y5" s="88" t="str">
+        <f t="shared" si="10"/>
+        <v>Pass</v>
+      </c>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="51" t="str">
+        <f t="shared" si="11"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27">
+      <c r="B6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="45">
+        <f>'Автоматизированный расчет'!F36</f>
+        <v>87.817047817047822</v>
+      </c>
+      <c r="D6" s="42">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="E6" s="43">
+        <f t="shared" si="4"/>
+        <v>1.3291597561260415E-2</v>
+      </c>
+      <c r="F6" s="44">
+        <v>89</v>
+      </c>
+      <c r="G6" s="44">
+        <v>0</v>
+      </c>
+      <c r="H6" s="44">
+        <v>0</v>
+      </c>
+      <c r="I6" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P6" s="74">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="Q6" s="55" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+      <c r="R6" s="74">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S6" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>Pass</v>
+      </c>
+      <c r="T6" s="56">
+        <v>0.126</v>
+      </c>
+      <c r="U6" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v>Pass</v>
+      </c>
+      <c r="V6" s="75">
+        <v>0.153</v>
+      </c>
+      <c r="W6" s="53" t="str">
+        <f t="shared" si="9"/>
+        <v>Pass</v>
+      </c>
+      <c r="X6" s="56">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="Y6" s="51" t="str">
+        <f t="shared" si="10"/>
+        <v>Pass</v>
+      </c>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="51" t="str">
+        <f t="shared" si="11"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="45">
+        <f>'Автоматизированный расчет'!F37</f>
+        <v>55.384615384615387</v>
+      </c>
+      <c r="D7" s="42">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="E7" s="43">
+        <f t="shared" si="4"/>
+        <v>-6.9930069930070893E-3</v>
+      </c>
+      <c r="F7" s="44">
+        <v>55</v>
+      </c>
+      <c r="G7" s="44">
+        <v>0</v>
+      </c>
+      <c r="H7" s="44">
+        <v>0</v>
+      </c>
+      <c r="I7" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P7" s="74">
+        <v>0.111</v>
+      </c>
+      <c r="Q7" s="55" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+      <c r="R7" s="74">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="S7" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>Pass</v>
+      </c>
+      <c r="T7" s="56">
+        <v>6.3E-2</v>
+      </c>
+      <c r="U7" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v>Pass</v>
+      </c>
+      <c r="V7" s="75">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="W7" s="53" t="str">
+        <f t="shared" si="9"/>
+        <v>Pass</v>
+      </c>
+      <c r="X7" s="56">
+        <v>0.122</v>
+      </c>
+      <c r="Y7" s="51" t="str">
+        <f t="shared" si="10"/>
+        <v>Pass</v>
+      </c>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="51" t="str">
+        <f t="shared" si="11"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27">
+      <c r="B8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="45">
+        <f>'Автоматизированный расчет'!F38</f>
+        <v>93.063794922324746</v>
+      </c>
+      <c r="D8" s="42">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="E8" s="43">
+        <f t="shared" si="4"/>
+        <v>9.959628485906924E-3</v>
+      </c>
+      <c r="F8" s="44">
+        <v>94</v>
+      </c>
+      <c r="G8" s="44">
+        <v>0</v>
+      </c>
+      <c r="H8" s="44">
+        <v>0</v>
+      </c>
+      <c r="I8" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P8" s="74">
+        <v>0.112</v>
+      </c>
+      <c r="Q8" s="55" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+      <c r="R8" s="74">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="S8" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>Pass</v>
+      </c>
+      <c r="T8" s="56">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U8" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v>Pass</v>
+      </c>
+      <c r="V8" s="75">
+        <v>0.111</v>
+      </c>
+      <c r="W8" s="53" t="str">
+        <f t="shared" si="9"/>
+        <v>Pass</v>
+      </c>
+      <c r="X8" s="56">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="Y8" s="51" t="str">
+        <f t="shared" si="10"/>
+        <v>Pass</v>
+      </c>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="51" t="str">
+        <f t="shared" si="11"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27">
+      <c r="B9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="45">
+        <f>'Автоматизированный расчет'!F39</f>
+        <v>23.300970873786408</v>
+      </c>
+      <c r="D9" s="42">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="E9" s="43">
+        <f t="shared" si="4"/>
+        <v>2.9126213592232997E-2</v>
+      </c>
+      <c r="F9" s="44">
+        <v>24</v>
+      </c>
+      <c r="G9" s="44">
+        <v>0</v>
+      </c>
+      <c r="H9" s="44">
+        <v>0</v>
+      </c>
+      <c r="I9" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P9" s="74">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="Q9" s="55" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+      <c r="R9" s="74">
+        <v>0.47</v>
+      </c>
+      <c r="S9" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>Pass</v>
+      </c>
+      <c r="T9" s="56">
+        <v>0.439</v>
+      </c>
+      <c r="U9" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v>Pass</v>
+      </c>
+      <c r="V9" s="75">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="W9" s="53" t="str">
+        <f t="shared" si="9"/>
+        <v>Pass</v>
+      </c>
+      <c r="X9" s="56">
+        <v>1.006</v>
+      </c>
+      <c r="Y9" s="51" t="str">
+        <f t="shared" si="10"/>
+        <v>Pass</v>
+      </c>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="51" t="str">
+        <f t="shared" si="11"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27">
+      <c r="B10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="45">
+        <f>'Автоматизированный расчет'!F40</f>
+        <v>109.28001113854096</v>
+      </c>
+      <c r="D10" s="42">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="E10" s="43">
+        <f t="shared" si="4"/>
+        <v>6.5453532859912622E-3</v>
+      </c>
+      <c r="F10" s="44">
+        <v>110</v>
+      </c>
+      <c r="G10" s="44">
+        <v>0</v>
+      </c>
+      <c r="H10" s="44">
+        <v>0</v>
+      </c>
+      <c r="I10" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P10" s="74">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="Q10" s="55" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+      <c r="R10" s="74">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="S10" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>Pass</v>
+      </c>
+      <c r="T10" s="56">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="U10" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v>Pass</v>
+      </c>
+      <c r="V10" s="75">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="W10" s="53" t="str">
+        <f t="shared" si="9"/>
+        <v>Pass</v>
+      </c>
+      <c r="X10" s="56">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="Y10" s="51" t="str">
+        <f t="shared" si="10"/>
+        <v>Pass</v>
+      </c>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="51" t="str">
+        <f t="shared" si="11"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="45">
+        <f>'Автоматизированный расчет'!F41</f>
+        <v>32.432432432432435</v>
+      </c>
+      <c r="D11" s="42">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E11" s="43">
+        <f t="shared" si="4"/>
+        <v>1.7199017199017064E-2</v>
+      </c>
+      <c r="F11" s="44">
+        <v>33</v>
+      </c>
+      <c r="G11" s="44">
+        <v>0</v>
+      </c>
+      <c r="H11" s="44">
+        <v>0</v>
+      </c>
+      <c r="I11" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P11" s="74">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="Q11" s="55" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+      <c r="R11" s="74">
+        <v>0.111</v>
+      </c>
+      <c r="S11" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>Pass</v>
+      </c>
+      <c r="T11" s="56">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="U11" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v>Pass</v>
+      </c>
+      <c r="V11" s="75">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="W11" s="53" t="str">
+        <f t="shared" si="9"/>
+        <v>Pass</v>
+      </c>
+      <c r="X11" s="56">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="Y11" s="51" t="str">
+        <f t="shared" si="10"/>
+        <v>Pass</v>
+      </c>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="51" t="str">
+        <f t="shared" si="11"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="45">
+        <f>'Автоматизированный расчет'!F42</f>
+        <v>32.432432432432435</v>
+      </c>
+      <c r="D12" s="42">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E12" s="43">
+        <f t="shared" si="4"/>
+        <v>1.7199017199017064E-2</v>
+      </c>
+      <c r="F12" s="44">
+        <v>33</v>
+      </c>
+      <c r="G12" s="44">
+        <v>0</v>
+      </c>
+      <c r="H12" s="44">
+        <v>0</v>
+      </c>
+      <c r="I12" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P12" s="74">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="Q12" s="55" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+      <c r="R12" s="74">
+        <v>0.128</v>
+      </c>
+      <c r="S12" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>Pass</v>
+      </c>
+      <c r="T12" s="56">
+        <v>0.125</v>
+      </c>
+      <c r="U12" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v>Pass</v>
+      </c>
+      <c r="V12" s="75">
+        <v>0.154</v>
+      </c>
+      <c r="W12" s="53" t="str">
+        <f t="shared" si="9"/>
+        <v>Pass</v>
+      </c>
+      <c r="X12" s="56">
+        <v>0.126</v>
+      </c>
+      <c r="Y12" s="51" t="str">
+        <f t="shared" si="10"/>
+        <v>Pass</v>
+      </c>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="51" t="str">
+        <f t="shared" si="11"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27">
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="45">
+        <f>'Автоматизированный расчет'!F43</f>
+        <v>32.432432432432435</v>
+      </c>
+      <c r="D13" s="42">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="E13" s="43">
+        <f t="shared" si="4"/>
+        <v>-1.3513513513513598E-2</v>
+      </c>
+      <c r="F13" s="44">
+        <v>32</v>
+      </c>
+      <c r="G13" s="44">
+        <v>0</v>
+      </c>
+      <c r="H13" s="44">
+        <v>0</v>
+      </c>
+      <c r="I13" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P13" s="74">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="Q13" s="55" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+      <c r="R13" s="74">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="S13" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>Pass</v>
+      </c>
+      <c r="T13" s="56">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="U13" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v>Pass</v>
+      </c>
+      <c r="V13" s="75">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="W13" s="53" t="str">
+        <f t="shared" si="9"/>
+        <v>Pass</v>
+      </c>
+      <c r="X13" s="56">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="Y13" s="51" t="str">
+        <f t="shared" si="10"/>
+        <v>Pass</v>
+      </c>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="51" t="str">
+        <f t="shared" si="11"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27">
+      <c r="K14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="P14" s="74">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="Q14" s="55" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+      <c r="R14" s="74">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="S14" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>Pass</v>
+      </c>
+      <c r="T14" s="56">
+        <v>0.109</v>
+      </c>
+      <c r="U14" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v>Pass</v>
+      </c>
+      <c r="V14" s="75">
+        <v>0.193</v>
+      </c>
+      <c r="W14" s="53" t="str">
+        <f t="shared" si="9"/>
+        <v>Pass</v>
+      </c>
+      <c r="X14" s="56">
+        <v>1.371</v>
+      </c>
+      <c r="Y14" s="51" t="str">
+        <f t="shared" si="10"/>
+        <v>Pass</v>
+      </c>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="51" t="str">
+        <f t="shared" si="11"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27">
+      <c r="B15" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="N15" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="85">
+        <f>'Автоматизированный расчет'!Q2</f>
+        <v>245</v>
+      </c>
+      <c r="P15" s="74">
+        <v>15.968999999999999</v>
+      </c>
+      <c r="Q15" s="55" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+      <c r="R15" s="74">
+        <v>15.8</v>
+      </c>
+      <c r="S15" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>Pass</v>
+      </c>
+      <c r="T15" s="56">
+        <v>15.734999999999999</v>
+      </c>
+      <c r="U15" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v>Pass</v>
+      </c>
+      <c r="V15" s="75">
+        <v>17.2</v>
+      </c>
+      <c r="W15" s="53" t="str">
+        <f t="shared" si="9"/>
+        <v>Pass</v>
+      </c>
+      <c r="X15" s="56">
+        <v>20.132999999999999</v>
+      </c>
+      <c r="Y15" s="51" t="str">
+        <f t="shared" si="10"/>
+        <v>Pass</v>
+      </c>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="51" t="str">
+        <f t="shared" si="11"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27">
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="50"/>
+      <c r="N16" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="85">
+        <f>'Автоматизированный расчет'!Q3</f>
+        <v>65</v>
+      </c>
+      <c r="P16" s="83">
+        <v>20.699000000000002</v>
+      </c>
+      <c r="Q16" s="55" t="str">
+        <f t="shared" si="6"/>
+        <v>Pass</v>
+      </c>
+      <c r="R16" s="84">
+        <v>20.622</v>
+      </c>
+      <c r="S16" s="53" t="str">
+        <f t="shared" si="7"/>
+        <v>Pass</v>
+      </c>
+      <c r="T16" s="56">
+        <v>20.492999999999999</v>
+      </c>
+      <c r="U16" s="55" t="str">
+        <f t="shared" si="8"/>
+        <v>Pass</v>
+      </c>
+      <c r="V16" s="56">
+        <v>20.68</v>
+      </c>
+      <c r="W16" s="53" t="str">
+        <f t="shared" si="9"/>
+        <v>Pass</v>
+      </c>
+      <c r="X16" s="56">
+        <v>22.879000000000001</v>
+      </c>
+      <c r="Y16" s="51" t="str">
+        <f t="shared" si="10"/>
+        <v>Pass</v>
+      </c>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="51" t="str">
+        <f t="shared" si="11"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27">
+      <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="45">
+        <f>'Автоматизированный расчет'!C33*'Соответствие профилю'!K15/3</f>
+        <v>361.76168547874516</v>
+      </c>
+      <c r="D17" s="42">
+        <f>F17</f>
+        <v>360</v>
+      </c>
+      <c r="E17" s="43">
+        <f>1-C17/D17</f>
+        <v>-4.8935707742920886E-3</v>
+      </c>
+      <c r="F17" s="44">
+        <v>360</v>
+      </c>
+      <c r="G17" s="44">
+        <v>0</v>
+      </c>
+      <c r="H17" s="44">
+        <v>0</v>
+      </c>
+      <c r="I17" s="43">
+        <f>G17/(F17+G17+H17)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" s="85">
+        <f>'Автоматизированный расчет'!Q4</f>
+        <v>74</v>
+      </c>
+      <c r="P17" s="83">
+        <v>15.625</v>
+      </c>
+      <c r="Q17" s="55" t="str">
+        <f t="shared" ref="Q17:Q19" si="12">IF(P17&lt;=$O17,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="R17" s="84">
+        <v>15.525</v>
+      </c>
+      <c r="S17" s="53" t="str">
+        <f t="shared" ref="S17:S19" si="13">IF(R17&lt;=$O17,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="T17" s="56">
+        <v>15.484999999999999</v>
+      </c>
+      <c r="U17" s="55" t="str">
+        <f t="shared" ref="U17:U19" si="14">IF(T17&lt;=$O17,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="V17" s="56">
+        <v>15.702</v>
+      </c>
+      <c r="W17" s="53" t="str">
+        <f t="shared" ref="W17:W19" si="15">IF(V17&lt;=$O17,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="X17" s="56">
+        <v>17.545999999999999</v>
+      </c>
+      <c r="Y17" s="51" t="str">
+        <f t="shared" ref="Y17:Y19" si="16">IF(X17&lt;=$O17,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="51" t="str">
+        <f t="shared" ref="AA17:AA19" si="17">IF(Z17&lt;=$O17,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27">
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="45">
+        <f>'Автоматизированный расчет'!C34*'Соответствие профилю'!K15/3</f>
+        <v>296.89682061388027</v>
+      </c>
+      <c r="D18" s="42">
+        <f t="shared" ref="D18:D20" si="18">F18</f>
+        <v>296</v>
+      </c>
+      <c r="E18" s="43">
+        <f t="shared" ref="E18:E20" si="19">1-C18/D18</f>
+        <v>-3.0297993712171678E-3</v>
+      </c>
+      <c r="F18" s="44">
+        <v>296</v>
+      </c>
+      <c r="G18" s="44">
+        <v>0</v>
+      </c>
+      <c r="H18" s="44">
+        <v>0</v>
+      </c>
+      <c r="I18" s="43">
+        <f t="shared" ref="I18:I20" si="20">G18/(F18+G18+H18)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="85">
+        <f>'Автоматизированный расчет'!Q5</f>
+        <v>103</v>
+      </c>
+      <c r="P18" s="83">
+        <v>21.405999999999999</v>
+      </c>
+      <c r="Q18" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v>Pass</v>
+      </c>
+      <c r="R18" s="84">
+        <v>21.419</v>
+      </c>
+      <c r="S18" s="53" t="str">
+        <f t="shared" si="13"/>
+        <v>Pass</v>
+      </c>
+      <c r="T18" s="56">
+        <v>21.140999999999998</v>
+      </c>
+      <c r="U18" s="55" t="str">
+        <f t="shared" si="14"/>
+        <v>Pass</v>
+      </c>
+      <c r="V18" s="56">
+        <v>21.565999999999999</v>
+      </c>
+      <c r="W18" s="53" t="str">
+        <f t="shared" si="15"/>
+        <v>Pass</v>
+      </c>
+      <c r="X18" s="56">
+        <v>23.800999999999998</v>
+      </c>
+      <c r="Y18" s="51" t="str">
+        <f t="shared" si="16"/>
+        <v>Pass</v>
+      </c>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="51" t="str">
+        <f t="shared" si="17"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" ht="15" thickBot="1">
+      <c r="B19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="45">
+        <f>'Автоматизированный расчет'!C35*'Соответствие профилю'!K15/3</f>
+        <v>196.39085239085239</v>
+      </c>
+      <c r="D19" s="42">
+        <f t="shared" si="18"/>
+        <v>192</v>
+      </c>
+      <c r="E19" s="43">
+        <f t="shared" si="19"/>
+        <v>-2.2869022869022926E-2</v>
+      </c>
+      <c r="F19" s="44">
+        <v>192</v>
+      </c>
+      <c r="G19" s="44">
+        <v>0</v>
+      </c>
+      <c r="H19" s="44">
+        <v>0</v>
+      </c>
+      <c r="I19" s="43">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" s="86">
+        <f>'Автоматизированный расчет'!Q6</f>
+        <v>37</v>
+      </c>
+      <c r="P19" s="58">
+        <v>16.189</v>
+      </c>
+      <c r="Q19" s="59" t="str">
+        <f t="shared" si="12"/>
+        <v>Pass</v>
+      </c>
+      <c r="R19" s="60">
+        <v>16.016999999999999</v>
+      </c>
+      <c r="S19" s="61" t="str">
+        <f t="shared" si="13"/>
+        <v>Pass</v>
+      </c>
+      <c r="T19" s="62">
+        <v>15.938000000000001</v>
+      </c>
+      <c r="U19" s="59" t="str">
+        <f t="shared" si="14"/>
+        <v>Pass</v>
+      </c>
+      <c r="V19" s="62">
+        <v>16.268000000000001</v>
+      </c>
+      <c r="W19" s="61" t="str">
+        <f t="shared" si="15"/>
+        <v>Pass</v>
+      </c>
+      <c r="X19" s="62">
+        <v>17.725999999999999</v>
+      </c>
+      <c r="Y19" s="57" t="str">
+        <f t="shared" si="16"/>
+        <v>Pass</v>
+      </c>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="57" t="str">
+        <f t="shared" si="17"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27">
+      <c r="B20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="45">
+        <f>'Автоматизированный расчет'!C36*'Соответствие профилю'!K15/3</f>
+        <v>175.63409563409564</v>
+      </c>
+      <c r="D20" s="42">
+        <f t="shared" si="18"/>
+        <v>179</v>
+      </c>
+      <c r="E20" s="43">
+        <f t="shared" si="19"/>
+        <v>1.8803935005052286E-2</v>
+      </c>
+      <c r="F20" s="44">
+        <v>179</v>
+      </c>
+      <c r="G20" s="44">
+        <v>0</v>
+      </c>
+      <c r="H20" s="44">
+        <v>0</v>
+      </c>
+      <c r="I20" s="43">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27">
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="45">
+        <f>'Автоматизированный расчет'!C37*'Соответствие профилю'!K15/3</f>
+        <v>110.76923076923077</v>
+      </c>
+      <c r="D21" s="42">
+        <f t="shared" ref="D21:D27" si="21">F21</f>
+        <v>111</v>
+      </c>
+      <c r="E21" s="43">
+        <f t="shared" ref="E21:E27" si="22">1-C21/D21</f>
+        <v>2.0790020790020236E-3</v>
+      </c>
+      <c r="F21" s="44">
+        <v>111</v>
+      </c>
+      <c r="G21" s="44">
+        <v>0</v>
+      </c>
+      <c r="H21" s="44">
+        <v>0</v>
+      </c>
+      <c r="I21" s="43">
+        <f t="shared" ref="I21:I27" si="23">G21/(F21+G21+H21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27">
+      <c r="B22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="45">
+        <f>'Автоматизированный расчет'!C38*'Соответствие профилю'!K15/3</f>
+        <v>186.12758984464949</v>
+      </c>
+      <c r="D22" s="42">
+        <f t="shared" si="21"/>
+        <v>187</v>
+      </c>
+      <c r="E22" s="43">
+        <f t="shared" si="22"/>
+        <v>4.6652949483984019E-3</v>
+      </c>
+      <c r="F22" s="44">
+        <v>187</v>
+      </c>
+      <c r="G22" s="44">
+        <v>0</v>
+      </c>
+      <c r="H22" s="44">
+        <v>0</v>
+      </c>
+      <c r="I22" s="43">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27">
+      <c r="B23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="45">
+        <f>'Автоматизированный расчет'!C39*'Соответствие профилю'!K15/3</f>
+        <v>46.601941747572816</v>
+      </c>
+      <c r="D23" s="42">
+        <f t="shared" si="21"/>
+        <v>47</v>
+      </c>
+      <c r="E23" s="43">
+        <f t="shared" si="22"/>
+        <v>8.4693245197272615E-3</v>
+      </c>
+      <c r="F23" s="44">
+        <v>47</v>
+      </c>
+      <c r="G23" s="44">
+        <v>0</v>
+      </c>
+      <c r="H23" s="44">
+        <v>0</v>
+      </c>
+      <c r="I23" s="43">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27">
+      <c r="B24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="45">
+        <f>'Автоматизированный расчет'!C40*'Соответствие профилю'!K15/3</f>
+        <v>218.56002227708191</v>
+      </c>
+      <c r="D24" s="42">
+        <f t="shared" si="21"/>
+        <v>221</v>
+      </c>
+      <c r="E24" s="43">
+        <f t="shared" si="22"/>
+        <v>1.104062318062482E-2</v>
+      </c>
+      <c r="F24" s="44">
+        <v>221</v>
+      </c>
+      <c r="G24" s="44">
+        <v>0</v>
+      </c>
+      <c r="H24" s="44">
+        <v>0</v>
+      </c>
+      <c r="I24" s="43">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="45">
+        <f>'Автоматизированный расчет'!C41*'Соответствие профилю'!K15/3</f>
+        <v>64.86486486486487</v>
+      </c>
+      <c r="D25" s="42">
+        <f t="shared" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="E25" s="43">
+        <f t="shared" si="22"/>
+        <v>1.7199017199017064E-2</v>
+      </c>
+      <c r="F25" s="44">
+        <v>66</v>
+      </c>
+      <c r="G25" s="44">
+        <v>0</v>
+      </c>
+      <c r="H25" s="44">
+        <v>0</v>
+      </c>
+      <c r="I25" s="43">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27">
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="45">
+        <f>'Автоматизированный расчет'!C42*'Соответствие профилю'!K15/3</f>
+        <v>64.86486486486487</v>
+      </c>
+      <c r="D26" s="42">
+        <f t="shared" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="E26" s="43">
+        <f t="shared" si="22"/>
+        <v>1.7199017199017064E-2</v>
+      </c>
+      <c r="F26" s="44">
+        <v>66</v>
+      </c>
+      <c r="G26" s="44">
+        <v>0</v>
+      </c>
+      <c r="H26" s="44">
+        <v>0</v>
+      </c>
+      <c r="I26" s="43">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27">
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="45">
+        <f>'Автоматизированный расчет'!C43*'Соответствие профилю'!K15/3</f>
+        <v>64.86486486486487</v>
+      </c>
+      <c r="D27" s="42">
+        <f t="shared" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="E27" s="43">
+        <f t="shared" si="22"/>
+        <v>1.7199017199017064E-2</v>
+      </c>
+      <c r="F27" s="44">
+        <v>66</v>
+      </c>
+      <c r="G27" s="44">
+        <v>0</v>
+      </c>
+      <c r="H27" s="44">
+        <v>0</v>
+      </c>
+      <c r="I27" s="43">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27">
+      <c r="K29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27">
+      <c r="B30" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="K30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27">
+      <c r="B31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27">
+      <c r="B32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="45">
+        <f>'Автоматизированный расчет'!C33*'Соответствие профилю'!K30/3</f>
+        <v>542.64252821811772</v>
+      </c>
+      <c r="D32" s="42">
+        <f>F32</f>
+        <v>544</v>
+      </c>
+      <c r="E32" s="43">
+        <f>1-C32/D32</f>
+        <v>2.4953525402248156E-3</v>
+      </c>
+      <c r="F32" s="44">
+        <v>544</v>
+      </c>
+      <c r="G32" s="44">
+        <v>0</v>
+      </c>
+      <c r="H32" s="44">
+        <v>0</v>
+      </c>
+      <c r="I32" s="43">
+        <f>G32/(F32+G32+H32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="45">
+        <f>'Автоматизированный расчет'!C34*'Соответствие профилю'!K30/3</f>
+        <v>445.34523092082037</v>
+      </c>
+      <c r="D33" s="42">
+        <f t="shared" ref="D33:D42" si="24">F33</f>
+        <v>446</v>
+      </c>
+      <c r="E33" s="43">
+        <f t="shared" ref="E33:E42" si="25">1-C33/D33</f>
+        <v>1.4680921057839136E-3</v>
+      </c>
+      <c r="F33" s="44">
+        <v>446</v>
+      </c>
+      <c r="G33" s="44">
+        <v>0</v>
+      </c>
+      <c r="H33" s="44">
+        <v>0</v>
+      </c>
+      <c r="I33" s="43">
+        <f t="shared" ref="I33:I42" si="26">G33/(F33+G33+H33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="45">
+        <f>'Автоматизированный расчет'!C35*'Соответствие профилю'!K30/3</f>
+        <v>294.58627858627858</v>
+      </c>
+      <c r="D34" s="42">
+        <f t="shared" si="24"/>
+        <v>286</v>
+      </c>
+      <c r="E34" s="43">
+        <f t="shared" si="25"/>
+        <v>-3.002195309887612E-2</v>
+      </c>
+      <c r="F34" s="44">
+        <v>286</v>
+      </c>
+      <c r="G34" s="44">
+        <v>0</v>
+      </c>
+      <c r="H34" s="44">
+        <v>0</v>
+      </c>
+      <c r="I34" s="43">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="45">
+        <f>'Автоматизированный расчет'!C36*'Соответствие профилю'!K30/3</f>
+        <v>263.45114345114348</v>
+      </c>
+      <c r="D35" s="42">
+        <f t="shared" si="24"/>
+        <v>266</v>
+      </c>
+      <c r="E35" s="43">
+        <f t="shared" si="25"/>
+        <v>9.5821674769042131E-3</v>
+      </c>
+      <c r="F35" s="44">
+        <v>266</v>
+      </c>
+      <c r="G35" s="44">
+        <v>0</v>
+      </c>
+      <c r="H35" s="44">
+        <v>0</v>
+      </c>
+      <c r="I35" s="43">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="45">
+        <f>'Автоматизированный расчет'!C37*'Соответствие профилю'!K30/3</f>
+        <v>166.15384615384616</v>
+      </c>
+      <c r="D36" s="42">
+        <f t="shared" si="24"/>
+        <v>166</v>
+      </c>
+      <c r="E36" s="43">
+        <f t="shared" si="25"/>
+        <v>-9.26784059314123E-4</v>
+      </c>
+      <c r="F36" s="44">
+        <v>166</v>
+      </c>
+      <c r="G36" s="44">
+        <v>0</v>
+      </c>
+      <c r="H36" s="44">
+        <v>0</v>
+      </c>
+      <c r="I36" s="43">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="45">
+        <f>'Автоматизированный расчет'!C38*'Соответствие профилю'!K30/3</f>
+        <v>279.19138476697424</v>
+      </c>
+      <c r="D37" s="42">
+        <f t="shared" si="24"/>
+        <v>278</v>
+      </c>
+      <c r="E37" s="43">
+        <f t="shared" si="25"/>
+        <v>-4.2855567157347174E-3</v>
+      </c>
+      <c r="F37" s="44">
+        <v>278</v>
+      </c>
+      <c r="G37" s="44">
+        <v>0</v>
+      </c>
+      <c r="H37" s="44">
+        <v>0</v>
+      </c>
+      <c r="I37" s="43">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="45">
+        <f>'Автоматизированный расчет'!C39*'Соответствие профилю'!K30/3</f>
+        <v>69.902912621359221</v>
+      </c>
+      <c r="D38" s="42">
+        <f t="shared" si="24"/>
+        <v>70</v>
+      </c>
+      <c r="E38" s="43">
+        <f t="shared" si="25"/>
+        <v>1.3869625520110951E-3</v>
+      </c>
+      <c r="F38" s="44">
+        <v>70</v>
+      </c>
+      <c r="G38" s="44">
+        <v>0</v>
+      </c>
+      <c r="H38" s="44">
+        <v>0</v>
+      </c>
+      <c r="I38" s="43">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="45">
+        <f>'Автоматизированный расчет'!C40*'Соответствие профилю'!K30/3</f>
+        <v>327.84003341562288</v>
+      </c>
+      <c r="D39" s="42">
+        <f t="shared" si="24"/>
+        <v>332</v>
+      </c>
+      <c r="E39" s="43">
+        <f t="shared" si="25"/>
+        <v>1.2530019832461159E-2</v>
+      </c>
+      <c r="F39" s="44">
+        <v>332</v>
+      </c>
+      <c r="G39" s="44">
+        <v>0</v>
+      </c>
+      <c r="H39" s="44">
+        <v>0</v>
+      </c>
+      <c r="I39" s="43">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="45">
+        <f>'Автоматизированный расчет'!C41*'Соответствие профилю'!K30/3</f>
+        <v>97.297297297297305</v>
+      </c>
+      <c r="D40" s="42">
+        <f t="shared" si="24"/>
+        <v>99</v>
+      </c>
+      <c r="E40" s="43">
+        <f t="shared" si="25"/>
+        <v>1.7199017199017064E-2</v>
+      </c>
+      <c r="F40" s="44">
+        <v>99</v>
+      </c>
+      <c r="G40" s="44">
+        <v>0</v>
+      </c>
+      <c r="H40" s="44">
+        <v>0</v>
+      </c>
+      <c r="I40" s="43">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="45">
+        <f>'Автоматизированный расчет'!C42*'Соответствие профилю'!K30/3</f>
+        <v>97.297297297297305</v>
+      </c>
+      <c r="D41" s="42">
+        <f t="shared" si="24"/>
+        <v>99</v>
+      </c>
+      <c r="E41" s="43">
+        <f t="shared" si="25"/>
+        <v>1.7199017199017064E-2</v>
+      </c>
+      <c r="F41" s="44">
+        <v>99</v>
+      </c>
+      <c r="G41" s="44">
+        <v>0</v>
+      </c>
+      <c r="H41" s="44">
+        <v>0</v>
+      </c>
+      <c r="I41" s="43">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="45">
+        <f>'Автоматизированный расчет'!C43*'Соответствие профилю'!K30/3</f>
+        <v>97.297297297297305</v>
+      </c>
+      <c r="D42" s="42">
+        <f t="shared" si="24"/>
+        <v>99</v>
+      </c>
+      <c r="E42" s="43">
+        <f t="shared" si="25"/>
+        <v>1.7199017199017064E-2</v>
+      </c>
+      <c r="F42" s="44">
+        <v>99</v>
+      </c>
+      <c r="G42" s="44">
+        <v>0</v>
+      </c>
+      <c r="H42" s="44">
+        <v>0</v>
+      </c>
+      <c r="I42" s="43">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="K44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
+      <c r="K45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="45">
+        <f>'Автоматизированный расчет'!C33*'Соответствие профилю'!K45/3</f>
+        <v>723.52337095749033</v>
+      </c>
+      <c r="D47" s="42">
+        <f>F47</f>
+        <v>723</v>
+      </c>
+      <c r="E47" s="43">
+        <f>1-C47/D47</f>
+        <v>-7.238879080087024E-4</v>
+      </c>
+      <c r="F47" s="44">
+        <v>723</v>
+      </c>
+      <c r="G47" s="44">
+        <v>0</v>
+      </c>
+      <c r="H47" s="44">
+        <v>0</v>
+      </c>
+      <c r="I47" s="43">
+        <f>G47/(F47+G47+H47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="45">
+        <f>'Автоматизированный расчет'!C34*'Соответствие профилю'!K45/3</f>
+        <v>593.79364122776053</v>
+      </c>
+      <c r="D48" s="42">
+        <f t="shared" ref="D48:D57" si="27">F48</f>
+        <v>596</v>
+      </c>
+      <c r="E48" s="43">
+        <f t="shared" ref="E48:E57" si="28">1-C48/D48</f>
+        <v>3.7019442487239429E-3</v>
+      </c>
+      <c r="F48" s="44">
+        <v>596</v>
+      </c>
+      <c r="G48" s="44">
+        <v>0</v>
+      </c>
+      <c r="H48" s="44">
+        <v>0</v>
+      </c>
+      <c r="I48" s="43">
+        <f t="shared" ref="I48:I57" si="29">G48/(F48+G48+H48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="45">
+        <f>'Автоматизированный расчет'!C35*'Соответствие профилю'!K45/3</f>
+        <v>392.78170478170478</v>
+      </c>
+      <c r="D49" s="42">
+        <f t="shared" si="27"/>
+        <v>378</v>
+      </c>
+      <c r="E49" s="43">
+        <f t="shared" si="28"/>
+        <v>-3.9105039105039152E-2</v>
+      </c>
+      <c r="F49" s="44">
+        <v>378</v>
+      </c>
+      <c r="G49" s="44">
+        <v>0</v>
+      </c>
+      <c r="H49" s="44">
+        <v>0</v>
+      </c>
+      <c r="I49" s="43">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="45">
+        <f>'Автоматизированный расчет'!C36*'Соответствие профилю'!K45/3</f>
+        <v>351.26819126819129</v>
+      </c>
+      <c r="D50" s="42">
+        <f t="shared" si="27"/>
+        <v>352</v>
+      </c>
+      <c r="E50" s="43">
+        <f t="shared" si="28"/>
+        <v>2.0790020790020236E-3</v>
+      </c>
+      <c r="F50" s="44">
+        <v>352</v>
+      </c>
+      <c r="G50" s="44">
+        <v>0</v>
+      </c>
+      <c r="H50" s="44">
+        <v>0</v>
+      </c>
+      <c r="I50" s="43">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="45">
+        <f>'Автоматизированный расчет'!C37*'Соответствие профилю'!K45/3</f>
+        <v>221.53846153846155</v>
+      </c>
+      <c r="D51" s="42">
+        <f t="shared" si="27"/>
+        <v>221</v>
+      </c>
+      <c r="E51" s="43">
+        <f t="shared" si="28"/>
+        <v>-2.4364775495997471E-3</v>
+      </c>
+      <c r="F51" s="44">
+        <v>221</v>
+      </c>
+      <c r="G51" s="44">
+        <v>0</v>
+      </c>
+      <c r="H51" s="44">
+        <v>0</v>
+      </c>
+      <c r="I51" s="43">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="45">
+        <f>'Автоматизированный расчет'!C38*'Соответствие профилю'!K45/3</f>
+        <v>372.25517968929898</v>
+      </c>
+      <c r="D52" s="42">
+        <f t="shared" si="27"/>
+        <v>373</v>
+      </c>
+      <c r="E52" s="43">
+        <f t="shared" si="28"/>
+        <v>1.9968372941046031E-3</v>
+      </c>
+      <c r="F52" s="44">
+        <v>373</v>
+      </c>
+      <c r="G52" s="44">
+        <v>0</v>
+      </c>
+      <c r="H52" s="44">
+        <v>0</v>
+      </c>
+      <c r="I52" s="43">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="45">
+        <f>'Автоматизированный расчет'!C39*'Соответствие профилю'!K45/3</f>
+        <v>93.203883495145632</v>
+      </c>
+      <c r="D53" s="42">
+        <f t="shared" si="27"/>
+        <v>94</v>
+      </c>
+      <c r="E53" s="43">
+        <f t="shared" si="28"/>
+        <v>8.4693245197272615E-3</v>
+      </c>
+      <c r="F53" s="44">
+        <v>94</v>
+      </c>
+      <c r="G53" s="44">
+        <v>0</v>
+      </c>
+      <c r="H53" s="44">
+        <v>0</v>
+      </c>
+      <c r="I53" s="43">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="45">
+        <f>'Автоматизированный расчет'!C40*'Соответствие профилю'!K45/3</f>
+        <v>437.12004455416383</v>
+      </c>
+      <c r="D54" s="42">
+        <f t="shared" si="27"/>
+        <v>448</v>
+      </c>
+      <c r="E54" s="43">
+        <f t="shared" si="28"/>
+        <v>2.4285614834455793E-2</v>
+      </c>
+      <c r="F54" s="44">
+        <v>448</v>
+      </c>
+      <c r="G54" s="44">
+        <v>0</v>
+      </c>
+      <c r="H54" s="44">
+        <v>0</v>
+      </c>
+      <c r="I54" s="43">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="45">
+        <f>'Автоматизированный расчет'!C41*'Соответствие профилю'!K45/3</f>
+        <v>129.72972972972974</v>
+      </c>
+      <c r="D55" s="42">
+        <f t="shared" si="27"/>
+        <v>130</v>
+      </c>
+      <c r="E55" s="43">
+        <f t="shared" si="28"/>
+        <v>2.0790020790020236E-3</v>
+      </c>
+      <c r="F55" s="44">
+        <v>130</v>
+      </c>
+      <c r="G55" s="44">
+        <v>0</v>
+      </c>
+      <c r="H55" s="44">
+        <v>0</v>
+      </c>
+      <c r="I55" s="43">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="45">
+        <f>'Автоматизированный расчет'!C42*'Соответствие профилю'!K45/3</f>
+        <v>129.72972972972974</v>
+      </c>
+      <c r="D56" s="42">
+        <f t="shared" si="27"/>
+        <v>130</v>
+      </c>
+      <c r="E56" s="43">
+        <f t="shared" si="28"/>
+        <v>2.0790020790020236E-3</v>
+      </c>
+      <c r="F56" s="44">
+        <v>130</v>
+      </c>
+      <c r="G56" s="44">
+        <v>0</v>
+      </c>
+      <c r="H56" s="44">
+        <v>0</v>
+      </c>
+      <c r="I56" s="43">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="45">
+        <f>'Автоматизированный расчет'!C43*'Соответствие профилю'!K45/3</f>
+        <v>129.72972972972974</v>
+      </c>
+      <c r="D57" s="42">
+        <f t="shared" si="27"/>
+        <v>132</v>
+      </c>
+      <c r="E57" s="43">
+        <f t="shared" si="28"/>
+        <v>1.7199017199017064E-2</v>
+      </c>
+      <c r="F57" s="44">
+        <v>132</v>
+      </c>
+      <c r="G57" s="44">
+        <v>0</v>
+      </c>
+      <c r="H57" s="44">
+        <v>0</v>
+      </c>
+      <c r="I57" s="43">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="K59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="97"/>
+      <c r="D60" s="97"/>
+      <c r="E60" s="97"/>
+      <c r="F60" s="97"/>
+      <c r="G60" s="97"/>
+      <c r="H60" s="97"/>
+      <c r="I60" s="97"/>
+      <c r="K60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="45">
+        <f>'Автоматизированный расчет'!C33*'Соответствие профилю'!K60/3</f>
+        <v>904.40421369686283</v>
+      </c>
+      <c r="D62" s="42">
+        <f>F62</f>
+        <v>904</v>
+      </c>
+      <c r="E62" s="43">
+        <f>1-C62/D62</f>
+        <v>-4.4713904520232717E-4</v>
+      </c>
+      <c r="F62" s="44">
+        <v>904</v>
+      </c>
+      <c r="G62" s="44">
+        <v>0</v>
+      </c>
+      <c r="H62" s="44">
+        <v>0</v>
+      </c>
+      <c r="I62" s="43">
+        <f>G62/(F62+G62+H62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="45">
+        <f>'Автоматизированный расчет'!C34*'Соответствие профилю'!K60/3</f>
+        <v>742.24205153470075</v>
+      </c>
+      <c r="D63" s="42">
+        <f t="shared" ref="D63:D72" si="30">F63</f>
+        <v>744</v>
+      </c>
+      <c r="E63" s="43">
+        <f t="shared" ref="E63:E72" si="31">1-C63/D63</f>
+        <v>2.3628339587355995E-3</v>
+      </c>
+      <c r="F63" s="44">
+        <v>744</v>
+      </c>
+      <c r="G63" s="44">
+        <v>0</v>
+      </c>
+      <c r="H63" s="44">
+        <v>0</v>
+      </c>
+      <c r="I63" s="43">
+        <f t="shared" ref="I63:I72" si="32">G63/(F63+G63+H63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="45">
+        <f>'Автоматизированный расчет'!C35*'Соответствие профилю'!K60/3</f>
+        <v>490.97713097713103</v>
+      </c>
+      <c r="D64" s="42">
+        <f t="shared" si="30"/>
+        <v>470</v>
+      </c>
+      <c r="E64" s="43">
+        <f t="shared" si="31"/>
+        <v>-4.4632193568363787E-2</v>
+      </c>
+      <c r="F64" s="44">
+        <v>470</v>
+      </c>
+      <c r="G64" s="44">
+        <v>0</v>
+      </c>
+      <c r="H64" s="44">
+        <v>0</v>
+      </c>
+      <c r="I64" s="43">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="45">
+        <f>'Автоматизированный расчет'!C36*'Соответствие профилю'!K60/3</f>
+        <v>439.08523908523915</v>
+      </c>
+      <c r="D65" s="42">
+        <f t="shared" si="30"/>
+        <v>437</v>
+      </c>
+      <c r="E65" s="43">
+        <f t="shared" si="31"/>
+        <v>-4.7717141538652363E-3</v>
+      </c>
+      <c r="F65" s="44">
+        <v>437</v>
+      </c>
+      <c r="G65" s="44">
+        <v>0</v>
+      </c>
+      <c r="H65" s="44">
+        <v>0</v>
+      </c>
+      <c r="I65" s="43">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="45">
+        <f>'Автоматизированный расчет'!C37*'Соответствие профилю'!K60/3</f>
+        <v>276.92307692307696</v>
+      </c>
+      <c r="D66" s="42">
+        <f t="shared" si="30"/>
+        <v>276</v>
+      </c>
+      <c r="E66" s="43">
+        <f t="shared" si="31"/>
+        <v>-3.3444816053513904E-3</v>
+      </c>
+      <c r="F66" s="44">
+        <v>276</v>
+      </c>
+      <c r="G66" s="44">
+        <v>0</v>
+      </c>
+      <c r="H66" s="44">
+        <v>0</v>
+      </c>
+      <c r="I66" s="43">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="45">
+        <f>'Автоматизированный расчет'!C38*'Соответствие профилю'!K60/3</f>
+        <v>465.31897461162379</v>
+      </c>
+      <c r="D67" s="42">
+        <f t="shared" si="30"/>
+        <v>465</v>
+      </c>
+      <c r="E67" s="43">
+        <f t="shared" si="31"/>
+        <v>-6.8596690671784977E-4</v>
+      </c>
+      <c r="F67" s="44">
+        <v>465</v>
+      </c>
+      <c r="G67" s="44">
+        <v>0</v>
+      </c>
+      <c r="H67" s="44">
+        <v>0</v>
+      </c>
+      <c r="I67" s="43">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="45">
+        <f>'Автоматизированный расчет'!C39*'Соответствие профилю'!K60/3</f>
+        <v>116.50485436893204</v>
+      </c>
+      <c r="D68" s="42">
+        <f t="shared" si="30"/>
+        <v>117</v>
+      </c>
+      <c r="E68" s="43">
+        <f t="shared" si="31"/>
+        <v>4.2320139407517887E-3</v>
+      </c>
+      <c r="F68" s="44">
+        <v>117</v>
+      </c>
+      <c r="G68" s="44">
+        <v>0</v>
+      </c>
+      <c r="H68" s="44">
+        <v>0</v>
+      </c>
+      <c r="I68" s="43">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="45">
+        <f>'Автоматизированный расчет'!C40*'Соответствие профилю'!K60/3</f>
+        <v>546.40005569270477</v>
+      </c>
+      <c r="D69" s="42">
+        <f t="shared" si="30"/>
+        <v>558</v>
+      </c>
+      <c r="E69" s="43">
+        <f t="shared" si="31"/>
+        <v>2.0788430658235213E-2</v>
+      </c>
+      <c r="F69" s="44">
+        <v>558</v>
+      </c>
+      <c r="G69" s="44">
+        <v>0</v>
+      </c>
+      <c r="H69" s="44">
+        <v>0</v>
+      </c>
+      <c r="I69" s="43">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="45">
+        <f>'Автоматизированный расчет'!C41*'Соответствие профилю'!K60/3</f>
+        <v>162.16216216216216</v>
+      </c>
+      <c r="D70" s="42">
+        <f t="shared" si="30"/>
+        <v>162</v>
+      </c>
+      <c r="E70" s="43">
+        <f t="shared" si="31"/>
+        <v>-1.0010010010010895E-3</v>
+      </c>
+      <c r="F70" s="44">
+        <v>162</v>
+      </c>
+      <c r="G70" s="44">
+        <v>0</v>
+      </c>
+      <c r="H70" s="44">
+        <v>0</v>
+      </c>
+      <c r="I70" s="43">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="45">
+        <f>'Автоматизированный расчет'!C42*'Соответствие профилю'!K60/3</f>
+        <v>162.16216216216216</v>
+      </c>
+      <c r="D71" s="42">
+        <f t="shared" si="30"/>
+        <v>162</v>
+      </c>
+      <c r="E71" s="43">
+        <f t="shared" si="31"/>
+        <v>-1.0010010010010895E-3</v>
+      </c>
+      <c r="F71" s="44">
+        <v>162</v>
+      </c>
+      <c r="G71" s="44">
+        <v>0</v>
+      </c>
+      <c r="H71" s="44">
+        <v>0</v>
+      </c>
+      <c r="I71" s="43">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="45">
+        <f>'Автоматизированный расчет'!C43*'Соответствие профилю'!K60/3</f>
+        <v>162.16216216216216</v>
+      </c>
+      <c r="D72" s="42">
+        <f t="shared" si="30"/>
+        <v>164</v>
+      </c>
+      <c r="E72" s="43">
+        <f t="shared" si="31"/>
+        <v>1.1206328279498967E-2</v>
+      </c>
+      <c r="F72" s="44">
+        <v>164</v>
+      </c>
+      <c r="G72" s="44">
+        <v>0</v>
+      </c>
+      <c r="H72" s="44">
+        <v>0</v>
+      </c>
+      <c r="I72" s="43">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="B45:I45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>